--- a/PAPER_METEO/results.xlsx
+++ b/PAPER_METEO/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" state="visible" r:id="rId2"/>
@@ -201,8 +201,8 @@
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -302,8 +302,12 @@
       <c r="E4" s="4" t="n">
         <v>0.1293</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="4" t="n">
+        <v>0.0888</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.0908</v>
+      </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -410,11 +414,11 @@
       </c>
       <c r="F13" s="5" t="n">
         <f aca="false">AVERAGE(F2:F11)</f>
-        <v>0.08355</v>
+        <v>0.0853</v>
       </c>
       <c r="G13" s="5" t="n">
         <f aca="false">AVERAGE(G2:G11)</f>
-        <v>0.08615</v>
+        <v>0.0877</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="1"/>
@@ -526,8 +530,8 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -565,8 +569,12 @@
       <c r="A3" s="1" t="n">
         <v>10.58</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="1" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>10.2</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -575,8 +583,12 @@
       <c r="A4" s="1" t="n">
         <v>9.17</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>8.9</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -585,8 +597,12 @@
       <c r="A5" s="1" t="n">
         <v>8.27</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="1" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>8.54</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -595,8 +611,12 @@
       <c r="A6" s="1" t="n">
         <v>8.53</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1" t="n">
+        <v>8.22</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>8.27</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -605,8 +625,12 @@
       <c r="A7" s="1" t="n">
         <v>9.88</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1" t="n">
+        <v>9.22</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>9.54</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -615,8 +639,12 @@
       <c r="A8" s="1" t="n">
         <v>7.55</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="1" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>7.1</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -625,8 +653,12 @@
       <c r="A9" s="1" t="n">
         <v>10.58</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>10.06</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -635,8 +667,12 @@
       <c r="A10" s="1" t="n">
         <v>10.94</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="n">
+        <v>9.89</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>10.21</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -645,8 +681,12 @@
       <c r="A11" s="1" t="n">
         <v>8.95</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="1" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>8.43</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -658,11 +698,11 @@
       </c>
       <c r="B12" s="2" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
-        <v>9.53</v>
+        <v>8.88</v>
       </c>
       <c r="C12" s="2" t="n">
         <f aca="false">AVERAGE(C2:C11)</f>
-        <v>9.52</v>
+        <v>9.077</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>

--- a/PAPER_METEO/results.xlsx
+++ b/PAPER_METEO/results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">YEAR</t>
   </si>
@@ -32,28 +32,31 @@
     <t xml:space="preserve">MLP(BFGS)</t>
   </si>
   <si>
+    <t xml:space="preserve">NNC</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEURAL(MRMR)</t>
   </si>
   <si>
     <t xml:space="preserve">NEURAL(PCA2)</t>
   </si>
   <si>
-    <t xml:space="preserve">FC2RBF</t>
-  </si>
-  <si>
     <t xml:space="preserve">FC2MLP</t>
   </si>
   <si>
+    <t xml:space="preserve">AVERAGE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Features selected</t>
   </si>
   <si>
-    <t xml:space="preserve">2014(MLP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fc2rbf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fc2mlp</t>
+    <t xml:space="preserve">2019NNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020NNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021mrmr</t>
   </si>
 </sst>
 </file>
@@ -64,7 +67,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -101,6 +104,19 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -149,7 +165,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -170,15 +186,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -199,16 +231,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="13.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="17.67"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -237,6 +270,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -245,20 +279,20 @@
       <c r="B2" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="5" t="n">
         <v>0.1238</v>
       </c>
       <c r="D2" s="4" t="n">
+        <v>0.0921</v>
+      </c>
+      <c r="E2" s="4" t="n">
         <v>0.0968</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="F2" s="4" t="n">
         <v>0.1302</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>0.0857</v>
-      </c>
       <c r="G2" s="4" t="n">
-        <v>0.0878</v>
+        <v>0.0804</v>
       </c>
       <c r="H2" s="4"/>
     </row>
@@ -269,20 +303,20 @@
       <c r="B3" s="4" t="n">
         <v>0.1194</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <v>0.1125</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.0917</v>
+      </c>
+      <c r="E3" s="4" t="n">
         <v>0.0849</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="F3" s="4" t="n">
         <v>0.1196</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>0.0814</v>
-      </c>
       <c r="G3" s="4" t="n">
-        <v>0.0845</v>
+        <v>0.0751</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -293,20 +327,20 @@
       <c r="B4" s="4" t="n">
         <v>0.1295</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <v>0.1188</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="E4" s="4" t="n">
         <v>0.0945</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="F4" s="4" t="n">
         <v>0.1293</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>0.0888</v>
-      </c>
       <c r="G4" s="4" t="n">
-        <v>0.0908</v>
+        <v>0.086</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -314,123 +348,197 @@
       <c r="A5" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="4" t="n">
+        <v>0.1268</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.1265</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.1261</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.1265</v>
+      </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="n">
+        <v>0.1266</v>
+      </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="4" t="n">
+        <v>0.1048</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.1497</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.0929</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.0921</v>
+      </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="n">
+        <v>0.0772</v>
+      </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="4" t="n">
+        <v>0.0944</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.0966</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.0703</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.0839</v>
+      </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="n">
+        <v>0.0662</v>
+      </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="B8" s="4" t="n">
+        <v>0.0956</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.0955</v>
+      </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="n">
+        <v>0.0961</v>
+      </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="B9" s="4" t="n">
+        <v>0.1106</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0.129</v>
+      </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="n">
+        <v>0.1057</v>
+      </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="n">
+        <v>0.0955</v>
+      </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>2023</v>
-      </c>
+    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="n">
+        <f aca="false">AVERAGE(B2:B9)</f>
+        <v>0.1138875</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <f aca="false">AVERAGE(C2:C9)</f>
+        <v>0.1193625</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <f aca="false">AVERAGE(D2:D9)</f>
+        <v>0.0956142857142857</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <f aca="false">AVERAGE(E2:E9)</f>
+        <v>0.0974875</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <f aca="false">AVERAGE(F2:F9)</f>
+        <v>0.126366666666667</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <f aca="false">AVERAGE(G2:G9)</f>
+        <v>0.0878875</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="10" t="n">
+        <v>12</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-    </row>
-    <row r="13" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="5" t="n">
-        <f aca="false">AVERAGE(B2:B11)</f>
-        <v>0.1263</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <f aca="false">AVERAGE(C2:C11)</f>
-        <v>0.118366666666667</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <f aca="false">AVERAGE(D2:D11)</f>
-        <v>0.0920666666666667</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <f aca="false">AVERAGE(E2:E11)</f>
-        <v>0.126366666666667</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <f aca="false">AVERAGE(F2:F11)</f>
-        <v>0.0853</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <f aca="false">AVERAGE(G2:G11)</f>
-        <v>0.0877</v>
-      </c>
-      <c r="H13" s="5"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="4"/>
-      <c r="D14" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -438,9 +546,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="4"/>
-      <c r="D15" s="7" t="n">
-        <v>12</v>
-      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -448,9 +554,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="4"/>
-      <c r="D16" s="7" t="n">
-        <v>19</v>
-      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -487,30 +591,6 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -528,187 +608,350 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="10" style="4" width="11.53"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B1" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>9.53</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="A2" s="4" t="n">
+        <v>0.1133</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0.0768</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.1055</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0.0819</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.0804</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0.1054</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.0942</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>10.58</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>0.0734</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.0916</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0.1018</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.0721</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>0.0915</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0.1069</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="4" t="n">
+        <v>0.1224</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>0.0732</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0.0745</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.0998</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.0735</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>0.0999</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.0962</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>8.54</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="4" t="n">
+        <v>0.1381</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>0.0782</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.1018</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.0955</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.0583</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.1016</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>8.53</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>8.22</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="4" t="n">
+        <v>0.1234</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.0678</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.0628</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.1044</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.0763</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0.0846</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>9.88</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>9.22</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>9.54</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="4" t="n">
+        <v>0.1265</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>0.0775</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.0744</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.0846</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.0956</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.0624</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>0.0999</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0.1029</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>0.0791</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.0763</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>0.106</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>10.58</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="4" t="n">
+        <v>0.1304</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>0.0827</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0.0541</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.0973</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0.1164</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.0638</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>0.0971</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>0.123</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>9.89</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="4" t="n">
+        <v>0.1312</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>0.0756</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>0.0692</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.0874</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0.0987</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>0.0874</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0.104</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>8.95</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A11" s="4" t="n">
+        <v>0.1207</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>0.0846</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0.0638</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.0822</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>0.0818</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>0.0721</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>0.0818</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>0.1075</v>
+      </c>
+    </row>
+    <row r="12" s="8" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="n">
         <f aca="false">AVERAGE(A2:A11)</f>
-        <v>9.454</v>
-      </c>
-      <c r="B12" s="2" t="n">
+        <v>0.1266</v>
+      </c>
+      <c r="B12" s="7" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
-        <v>8.88</v>
-      </c>
-      <c r="C12" s="2" t="n">
+        <v>0.07721</v>
+      </c>
+      <c r="C12" s="7" t="n">
         <f aca="false">AVERAGE(C2:C11)</f>
-        <v>9.077</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
+        <v>0.06616</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <f aca="false">AVERAGE(D2:D11)</f>
+        <v>0.09522</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <f aca="false">AVERAGE(E2:E11)</f>
+        <v>0.09662</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="n">
+        <f aca="false">AVERAGE(G2:G11)</f>
+        <v>0.07032</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <f aca="false">AVERAGE(H2:H11)</f>
+        <v>0.095</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <f aca="false">AVERAGE(I2:I11)</f>
+        <v>0.10573</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/PAPER_METEO/results.xlsx
+++ b/PAPER_METEO/results.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Φύλλο1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Φύλλο2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Φύλλο1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Φύλλο2" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">Features selected</t>
   </si>
   <si>
-    <t xml:space="preserve">2019NNC</t>
+    <t xml:space="preserve">2021nnc</t>
   </si>
   <si>
     <t xml:space="preserve">2020NNC</t>
@@ -226,6 +226,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -234,7 +340,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -289,7 +395,7 @@
         <v>0.0968</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.1302</v>
+        <v>0.155</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0.0804</v>
@@ -313,7 +419,7 @@
         <v>0.0849</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.1196</v>
+        <v>0.1503</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0.0751</v>
@@ -360,7 +466,9 @@
       <c r="E5" s="4" t="n">
         <v>0.1265</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="n">
+        <v>0.1264</v>
+      </c>
       <c r="G5" s="4" t="n">
         <v>0.1266</v>
       </c>
@@ -382,7 +490,9 @@
       <c r="E6" s="4" t="n">
         <v>0.0921</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="n">
+        <v>0.1049</v>
+      </c>
       <c r="G6" s="4" t="n">
         <v>0.0772</v>
       </c>
@@ -404,7 +514,9 @@
       <c r="E7" s="4" t="n">
         <v>0.0839</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="n">
+        <v>0.0972</v>
+      </c>
       <c r="G7" s="4" t="n">
         <v>0.0662</v>
       </c>
@@ -426,7 +538,9 @@
       <c r="E8" s="4" t="n">
         <v>0.0955</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="n">
+        <v>0.0976</v>
+      </c>
       <c r="G8" s="4" t="n">
         <v>0.0961</v>
       </c>
@@ -442,11 +556,15 @@
       <c r="C9" s="4" t="n">
         <v>0.129</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="n">
+        <v>0.108</v>
+      </c>
       <c r="E9" s="4" t="n">
         <v>0.1057</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="n">
+        <v>0.1103</v>
+      </c>
       <c r="G9" s="4" t="n">
         <v>0.0955</v>
       </c>
@@ -466,7 +584,7 @@
       </c>
       <c r="D10" s="7" t="n">
         <f aca="false">AVERAGE(D2:D9)</f>
-        <v>0.0956142857142857</v>
+        <v>0.0971625</v>
       </c>
       <c r="E10" s="7" t="n">
         <f aca="false">AVERAGE(E2:E9)</f>
@@ -474,7 +592,7 @@
       </c>
       <c r="F10" s="7" t="n">
         <f aca="false">AVERAGE(F2:F9)</f>
-        <v>0.126366666666667</v>
+        <v>0.121375</v>
       </c>
       <c r="G10" s="7" t="n">
         <f aca="false">AVERAGE(G2:G9)</f>
@@ -611,7 +729,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -667,10 +785,10 @@
         <v>0.0819</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.0804</v>
+        <v>0.0889</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.1054</v>
+        <v>0.0965</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>0.0942</v>
@@ -693,10 +811,10 @@
         <v>0.1018</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.0721</v>
+        <v>0.1142</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.0915</v>
+        <v>0.1157</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>0.1069</v>
@@ -719,10 +837,10 @@
         <v>0.0885</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.0735</v>
+        <v>0.0987</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.0999</v>
+        <v>0.0963</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>0.0962</v>
@@ -745,10 +863,10 @@
         <v>0.0955</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.0583</v>
+        <v>0.1044</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.1012</v>
+        <v>0.1072</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>0.1016</v>
@@ -771,10 +889,10 @@
         <v>0.1044</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.0763</v>
+        <v>0.1114</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>0.0846</v>
+        <v>0.1142</v>
       </c>
       <c r="I6" s="4" t="n">
         <v>0.115</v>
@@ -797,10 +915,10 @@
         <v>0.0956</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>0.0624</v>
+        <v>0.1114</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>0.0999</v>
+        <v>0.1097</v>
       </c>
       <c r="I7" s="4" t="n">
         <v>0.1029</v>
@@ -823,10 +941,10 @@
         <v>0.1016</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.0763</v>
+        <v>0.1086</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>0.1012</v>
+        <v>0.1174</v>
       </c>
       <c r="I8" s="4" t="n">
         <v>0.106</v>
@@ -849,10 +967,10 @@
         <v>0.1164</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.0638</v>
+        <v>0.1255</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>0.0971</v>
+        <v>0.1286</v>
       </c>
       <c r="I9" s="4" t="n">
         <v>0.123</v>
@@ -875,10 +993,10 @@
         <v>0.0987</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.068</v>
+        <v>0.1114</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>0.0874</v>
+        <v>0.1129</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>0.104</v>
@@ -901,10 +1019,10 @@
         <v>0.0818</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>0.0721</v>
+        <v>0.1058</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>0.0818</v>
+        <v>0.1047</v>
       </c>
       <c r="I11" s="4" t="n">
         <v>0.1075</v>
@@ -934,11 +1052,11 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="n">
         <f aca="false">AVERAGE(G2:G11)</f>
-        <v>0.07032</v>
+        <v>0.10803</v>
       </c>
       <c r="H12" s="7" t="n">
         <f aca="false">AVERAGE(H2:H11)</f>
-        <v>0.095</v>
+        <v>0.11032</v>
       </c>
       <c r="I12" s="7" t="n">
         <f aca="false">AVERAGE(I2:I11)</f>

--- a/PAPER_METEO/results.xlsx
+++ b/PAPER_METEO/results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Φύλλο1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Φύλλο2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Φύλλο1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="features" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t xml:space="preserve">YEAR</t>
   </si>
@@ -41,22 +41,28 @@
     <t xml:space="preserve">NEURAL(PCA2)</t>
   </si>
   <si>
+    <t xml:space="preserve">FC1MLP</t>
+  </si>
+  <si>
     <t xml:space="preserve">FC2MLP</t>
   </si>
   <si>
+    <t xml:space="preserve">FC3MLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC4MLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">AVERAGE</t>
   </si>
   <si>
     <t xml:space="preserve">Features selected</t>
   </si>
   <si>
-    <t xml:space="preserve">2021nnc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020NNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021mrmr</t>
+    <t xml:space="preserve">FOLD</t>
   </si>
 </sst>
 </file>
@@ -165,7 +171,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -211,6 +217,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -226,121 +236,15 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -348,6 +252,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="13.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="17.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -372,11 +277,20 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -397,10 +311,14 @@
       <c r="F2" s="4" t="n">
         <v>0.155</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="n">
         <v>0.0804</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -421,10 +339,14 @@
       <c r="F3" s="4" t="n">
         <v>0.1503</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="n">
         <v>0.0751</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -445,10 +367,14 @@
       <c r="F4" s="4" t="n">
         <v>0.1293</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="n">
         <v>0.086</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -469,10 +395,14 @@
       <c r="F5" s="4" t="n">
         <v>0.1264</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="n">
         <v>0.1266</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -493,10 +423,14 @@
       <c r="F6" s="4" t="n">
         <v>0.1049</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4" t="n">
         <v>0.0772</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -517,10 +451,14 @@
       <c r="F7" s="4" t="n">
         <v>0.0972</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="n">
         <v>0.0662</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -541,10 +479,14 @@
       <c r="F8" s="4" t="n">
         <v>0.0976</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4" t="n">
         <v>0.0961</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -565,14 +507,18 @@
       <c r="F9" s="4" t="n">
         <v>0.1103</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4" t="n">
         <v>0.0955</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B10" s="7" t="n">
         <f aca="false">AVERAGE(B2:B9)</f>
@@ -594,16 +540,27 @@
         <f aca="false">AVERAGE(F2:F9)</f>
         <v>0.121375</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="7" t="e">
         <f aca="false">AVERAGE(G2:G9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <f aca="false">AVERAGE(H2:H9)</f>
         <v>0.0878875</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="I10" s="7" t="e">
+        <f aca="false">AVERAGE(I2:I9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="7" t="e">
+        <f aca="false">AVERAGE(J2:J9)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
@@ -611,16 +568,18 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="4"/>
@@ -631,11 +590,13 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
     </row>
     <row r="13" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
@@ -648,11 +609,13 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="4"/>
@@ -661,6 +624,8 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="4"/>
@@ -669,6 +634,8 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="4"/>
@@ -677,6 +644,8 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="4"/>
@@ -685,6 +654,8 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="4"/>
@@ -693,6 +664,8 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="4"/>
@@ -701,6 +674,8 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="4"/>
@@ -709,6 +684,8 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -726,350 +703,338 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="10" style="4" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="8" style="4" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="n">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E1" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="B1" s="2" t="n">
+      <c r="F1" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="G1" s="2" t="n">
         <v>2019</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="H1" s="2" t="n">
         <v>2020</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="I1" s="2" t="n">
         <v>2021</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0.0707</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.0987</v>
+      </c>
+      <c r="E2" s="4" t="n">
         <v>0.1133</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>0.0768</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>0.1055</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>0.0819</v>
+      <c r="F2" s="4" t="n">
+        <v>0.0812</v>
       </c>
       <c r="G2" s="4" t="n">
+        <v>0.0801</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0.1057</v>
+      </c>
+      <c r="I2" s="4" t="n">
         <v>0.0889</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>0.0965</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.0942</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>0.0919</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.0718</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.1019</v>
+      </c>
+      <c r="E3" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>0.0734</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="D3" s="4" t="n">
+      <c r="F3" s="4" t="n">
+        <v>0.0774</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.0687</v>
+      </c>
+      <c r="H3" s="4" t="n">
         <v>0.0916</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>0.1018</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.1142</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>0.1157</v>
-      </c>
       <c r="I3" s="4" t="n">
-        <v>0.1069</v>
+        <v>0.1099</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>0.1224</v>
+      <c r="A4" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.0732</v>
+        <v>0.0798</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.0745</v>
+        <v>0.0838</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.0998</v>
+        <v>0.0903</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.0885</v>
+        <v>0.1226</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.0754</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.0987</v>
+        <v>0.0748</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.0963</v>
+        <v>0.0999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.0962</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>0.1381</v>
+      <c r="A5" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.0829</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.0775</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.1372</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.0806</v>
+      </c>
+      <c r="G5" s="12" t="n">
+        <v>0.0548</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0.1013</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.1026</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.0773</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.1235</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.0702</v>
+      </c>
+      <c r="G6" s="12" t="n">
+        <v>0.0595</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0.0999</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.1076</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>0.1038</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.0852</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.1265</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.0823</v>
+      </c>
+      <c r="G7" s="12" t="n">
         <v>0.0782</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.1018</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.0955</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.1044</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0.1072</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.1016</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>0.1234</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.0678</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.0628</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.1044</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.1114</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>0.1142</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>0.1265</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.0775</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.0744</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.0846</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.0956</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.1114</v>
-      </c>
       <c r="H7" s="4" t="n">
-        <v>0.1097</v>
+        <v>0.0849</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>0.1029</v>
+        <v>0.1125</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>0.14</v>
+      <c r="A8" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0.0791</v>
+        <v>0.0961</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.102</v>
-      </c>
+        <v>0.0881</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="4" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.1086</v>
+        <v>0.1403</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>0.1174</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.106</v>
+        <v>0.1015</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <v>0.1304</v>
+      <c r="A9" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0.0827</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.0541</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.0973</v>
-      </c>
+        <v>0.1017</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="4" t="n">
-        <v>0.1164</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.1255</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>0.1286</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.123</v>
+        <v>0.1297</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
-        <v>0.1312</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.0756</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.0692</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.0874</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.0987</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.1114</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0.1129</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.104</v>
-      </c>
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
-        <v>0.1207</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>0.0846</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>0.0638</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.0822</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>0.0818</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>0.1058</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>0.1047</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>0.1075</v>
-      </c>
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" s="8" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
-        <f aca="false">AVERAGE(A2:A11)</f>
-        <v>0.1266</v>
-      </c>
       <c r="B12" s="7" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
-        <v>0.07721</v>
+        <v>0.0910375</v>
       </c>
       <c r="C12" s="7" t="n">
         <f aca="false">AVERAGE(C2:C11)</f>
-        <v>0.06616</v>
+        <v>0.0799714285714286</v>
       </c>
       <c r="D12" s="7" t="n">
         <f aca="false">AVERAGE(D2:D11)</f>
-        <v>0.09522</v>
+        <v>0.09068</v>
       </c>
       <c r="E12" s="7" t="n">
         <f aca="false">AVERAGE(E2:E11)</f>
-        <v>0.09662</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>0.1266375</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <f aca="false">AVERAGE(F2:F11)</f>
+        <v>0.07785</v>
+      </c>
       <c r="G12" s="7" t="n">
         <f aca="false">AVERAGE(G2:G11)</f>
-        <v>0.10803</v>
+        <v>0.06935</v>
       </c>
       <c r="H12" s="7" t="n">
         <f aca="false">AVERAGE(H2:H11)</f>
-        <v>0.11032</v>
+        <v>0.0978285714285715</v>
       </c>
       <c r="I12" s="7" t="n">
         <f aca="false">AVERAGE(I2:I11)</f>
-        <v>0.10573</v>
+        <v>0.103583333333333</v>
       </c>
       <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="K12" s="7" t="n">
+        <f aca="false">AVERAGE(B12:I12)</f>
+        <v>0.0921172916666667</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I13" s="4"/>
+      <c r="O12" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/PAPER_METEO/results.xlsx
+++ b/PAPER_METEO/results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t xml:space="preserve">YEAR</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t xml:space="preserve">FC3MLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC4MLP</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
@@ -73,7 +70,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -128,6 +125,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -220,7 +224,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,7 +248,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -283,9 +287,7 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -312,13 +314,12 @@
         <v>0.155</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>0.0804</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -340,13 +341,12 @@
         <v>0.1503</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>0.0751</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -368,13 +368,12 @@
         <v>0.1293</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>0.086</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -396,13 +395,12 @@
         <v>0.1264</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>0.1266</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -424,13 +422,12 @@
         <v>0.1049</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>0.0772</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -452,13 +449,12 @@
         <v>0.0972</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>0.0662</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -480,13 +476,12 @@
         <v>0.0976</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>0.0961</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -508,17 +503,16 @@
         <v>0.1103</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>0.0955</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="7" t="n">
         <f aca="false">AVERAGE(B2:B9)</f>
@@ -552,15 +546,11 @@
         <f aca="false">AVERAGE(I2:I9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="7" t="e">
-        <f aca="false">AVERAGE(J2:J9)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
     </row>
     <row r="11" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
@@ -568,13 +558,13 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -591,12 +581,11 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
     </row>
     <row r="13" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
@@ -610,7 +599,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -625,7 +614,6 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="4"/>
@@ -635,7 +623,6 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="4"/>
@@ -645,7 +632,6 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="4"/>
@@ -655,7 +641,6 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="4"/>
@@ -665,7 +650,6 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="4"/>
@@ -675,7 +659,6 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="4"/>
@@ -685,7 +668,6 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -706,7 +688,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -716,7 +698,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="n">
         <v>2014</v>
@@ -750,7 +732,7 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="n">
@@ -779,7 +761,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="n">
@@ -808,7 +790,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="n">
@@ -837,7 +819,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="n">
@@ -855,7 +837,7 @@
       <c r="F5" s="4" t="n">
         <v>0.0806</v>
       </c>
-      <c r="G5" s="12" t="n">
+      <c r="G5" s="4" t="n">
         <v>0.0548</v>
       </c>
       <c r="H5" s="4" t="n">
@@ -866,7 +848,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="n">
@@ -884,7 +866,7 @@
       <c r="F6" s="4" t="n">
         <v>0.0702</v>
       </c>
-      <c r="G6" s="12" t="n">
+      <c r="G6" s="4" t="n">
         <v>0.0595</v>
       </c>
       <c r="H6" s="4" t="n">
@@ -895,7 +877,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="n">
@@ -904,8 +886,8 @@
       <c r="C7" s="4" t="n">
         <v>0.0852</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
+      <c r="D7" s="4" t="n">
+        <v>0.0909</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>0.1265</v>
@@ -913,7 +895,7 @@
       <c r="F7" s="4" t="n">
         <v>0.0823</v>
       </c>
-      <c r="G7" s="12" t="n">
+      <c r="G7" s="4" t="n">
         <v>0.0782</v>
       </c>
       <c r="H7" s="4" t="n">
@@ -924,7 +906,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="n">
@@ -933,103 +915,135 @@
       <c r="C8" s="4" t="n">
         <v>0.0881</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="n">
+        <v>0.0738</v>
+      </c>
       <c r="E8" s="4" t="n">
         <v>0.1403</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>10</v>
+      <c r="F8" s="4" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.0702</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>0.1015</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>10</v>
+      <c r="I8" s="4" t="n">
+        <v>0.1078</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>0.1017</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="C9" s="4" t="n">
+        <v>0.0854</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E9" s="4" t="n">
         <v>0.1297</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="H9" s="4" t="s">
+      <c r="F9" s="4" t="n">
+        <v>0.0847</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>0.0975</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>0.1306</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>0.0902</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="n">
+        <v>0.1315</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>0.0875</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="n">
+        <v>0.0768</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="n">
+        <v>0.1208</v>
+      </c>
       <c r="F11" s="4"/>
-    </row>
-    <row r="12" s="8" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" s="8" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
-        <v>0.0910375</v>
+        <v>0.08953</v>
       </c>
       <c r="C12" s="7" t="n">
         <f aca="false">AVERAGE(C2:C11)</f>
-        <v>0.0799714285714286</v>
+        <v>0.08065</v>
       </c>
       <c r="D12" s="7" t="n">
         <f aca="false">AVERAGE(D2:D11)</f>
-        <v>0.09068</v>
+        <v>0.0883</v>
       </c>
       <c r="E12" s="7" t="n">
         <f aca="false">AVERAGE(E2:E11)</f>
-        <v>0.1266375</v>
+        <v>0.12654</v>
       </c>
       <c r="F12" s="7" t="n">
         <f aca="false">AVERAGE(F2:F11)</f>
-        <v>0.07785</v>
+        <v>0.07935</v>
       </c>
       <c r="G12" s="7" t="n">
         <f aca="false">AVERAGE(G2:G11)</f>
-        <v>0.06935</v>
+        <v>0.0675375</v>
       </c>
       <c r="H12" s="7" t="n">
         <f aca="false">AVERAGE(H2:H11)</f>
-        <v>0.0978285714285715</v>
+        <v>0.0966444444444445</v>
       </c>
       <c r="I12" s="7" t="n">
         <f aca="false">AVERAGE(I2:I11)</f>
-        <v>0.103583333333333</v>
+        <v>0.1074875</v>
       </c>
       <c r="J12" s="7"/>
-      <c r="K12" s="7" t="n">
+      <c r="K12" s="12" t="n">
         <f aca="false">AVERAGE(B12:I12)</f>
-        <v>0.0921172916666667</v>
+        <v>0.0920049305555556</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>

--- a/PAPER_METEO/results.xlsx
+++ b/PAPER_METEO/results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t xml:space="preserve">YEAR</t>
   </si>
@@ -50,9 +50,6 @@
     <t xml:space="preserve">FC3MLP</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
     <t xml:space="preserve">AVERAGE</t>
   </si>
   <si>
@@ -60,6 +57,12 @@
   </si>
   <si>
     <t xml:space="preserve">FOLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
   </si>
 </sst>
 </file>
@@ -175,7 +178,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -225,6 +228,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -248,7 +255,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -313,8 +320,8 @@
       <c r="F2" s="4" t="n">
         <v>0.155</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
+      <c r="G2" s="4" t="n">
+        <v>0.0895</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>0.0804</v>
@@ -340,8 +347,8 @@
       <c r="F3" s="4" t="n">
         <v>0.1503</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
+      <c r="G3" s="4" t="n">
+        <v>0.0832</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>0.0751</v>
@@ -367,8 +374,8 @@
       <c r="F4" s="4" t="n">
         <v>0.1293</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>9</v>
+      <c r="G4" s="4" t="n">
+        <v>0.0916</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>0.086</v>
@@ -394,8 +401,8 @@
       <c r="F5" s="4" t="n">
         <v>0.1264</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>9</v>
+      <c r="G5" s="4" t="n">
+        <v>0.1265</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>0.1266</v>
@@ -421,8 +428,8 @@
       <c r="F6" s="4" t="n">
         <v>0.1049</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>9</v>
+      <c r="G6" s="4" t="n">
+        <v>0.0805</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>0.0772</v>
@@ -448,8 +455,8 @@
       <c r="F7" s="4" t="n">
         <v>0.0972</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>9</v>
+      <c r="G7" s="4" t="n">
+        <v>0.0665</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>0.0662</v>
@@ -475,8 +482,8 @@
       <c r="F8" s="4" t="n">
         <v>0.0976</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>9</v>
+      <c r="G8" s="4" t="n">
+        <v>0.0952</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>0.0961</v>
@@ -502,8 +509,8 @@
       <c r="F9" s="4" t="n">
         <v>0.1103</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>9</v>
+      <c r="G9" s="4" t="n">
+        <v>0.1091</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>0.0955</v>
@@ -512,7 +519,7 @@
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="7" t="n">
         <f aca="false">AVERAGE(B2:B9)</f>
@@ -534,9 +541,9 @@
         <f aca="false">AVERAGE(F2:F9)</f>
         <v>0.121375</v>
       </c>
-      <c r="G10" s="7" t="e">
+      <c r="G10" s="7" t="n">
         <f aca="false">AVERAGE(G2:G9)</f>
-        <v>#DIV/0!</v>
+        <v>0.0927625</v>
       </c>
       <c r="H10" s="7" t="n">
         <f aca="false">AVERAGE(H2:H9)</f>
@@ -558,7 +565,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -685,10 +692,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -698,7 +705,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="n">
         <v>2014</v>
@@ -944,8 +951,8 @@
       <c r="C9" s="4" t="n">
         <v>0.0854</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
+      <c r="D9" s="4" t="n">
+        <v>0.1066</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>0.1297</v>
@@ -970,24 +977,26 @@
       <c r="B10" s="4" t="n">
         <v>0.0902</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="C10" s="4" t="n">
+        <v>0.0889</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.1032</v>
+      </c>
       <c r="E10" s="4" t="n">
         <v>0.1315</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>9</v>
+      <c r="F10" s="4" t="n">
+        <v>0.0847</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.054</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>0.0875</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>9</v>
+      <c r="I10" s="4" t="n">
+        <v>0.1306</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -997,14 +1006,26 @@
       <c r="B11" s="4" t="n">
         <v>0.0768</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="4" t="n">
+        <v>0.0976</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.0878</v>
+      </c>
       <c r="E11" s="4" t="n">
         <v>0.1208</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>9</v>
+      <c r="F11" s="4" t="n">
+        <v>0.0854</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>0.0705</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>0.0821</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>0.1007</v>
       </c>
     </row>
     <row r="12" s="8" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1014,11 +1035,11 @@
       </c>
       <c r="C12" s="7" t="n">
         <f aca="false">AVERAGE(C2:C11)</f>
-        <v>0.08065</v>
+        <v>0.08317</v>
       </c>
       <c r="D12" s="7" t="n">
         <f aca="false">AVERAGE(D2:D11)</f>
-        <v>0.0883</v>
+        <v>0.09157</v>
       </c>
       <c r="E12" s="7" t="n">
         <f aca="false">AVERAGE(E2:E11)</f>
@@ -1026,31 +1047,274 @@
       </c>
       <c r="F12" s="7" t="n">
         <f aca="false">AVERAGE(F2:F11)</f>
-        <v>0.07935</v>
+        <v>0.08049</v>
       </c>
       <c r="G12" s="7" t="n">
         <f aca="false">AVERAGE(G2:G11)</f>
-        <v>0.0675375</v>
+        <v>0.06648</v>
       </c>
       <c r="H12" s="7" t="n">
         <f aca="false">AVERAGE(H2:H11)</f>
-        <v>0.0966444444444445</v>
+        <v>0.09519</v>
       </c>
       <c r="I12" s="7" t="n">
         <f aca="false">AVERAGE(I2:I11)</f>
-        <v>0.1074875</v>
+        <v>0.10912</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="12" t="n">
         <f aca="false">AVERAGE(B12:I12)</f>
-        <v>0.0920049305555556</v>
+        <v>0.09276125</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>0.0714</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>0.0925</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>0.1132</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>0.0771</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>0.0785</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>0.1055</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>0.0833</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>0.0971</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>0.0701</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>0.1204</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>0.0742</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>0.0644</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>0.0923</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>0.1034</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8"/>
+      <c r="B26" s="7" t="n">
+        <f aca="false">AVERAGE(B16:B25)</f>
+        <v>0.08705</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <f aca="false">AVERAGE(C16:C25)</f>
+        <v>0.07075</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <f aca="false">AVERAGE(D16:D25)</f>
+        <v>0.0925</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <f aca="false">AVERAGE(E16:E25)</f>
+        <v>0.1168</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <f aca="false">AVERAGE(F16:F25)</f>
+        <v>0.07565</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <f aca="false">AVERAGE(G16:G25)</f>
+        <v>0.07145</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <f aca="false">AVERAGE(H16:H25)</f>
+        <v>0.0989</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <f aca="false">AVERAGE(I16:I25)</f>
+        <v>0.09335</v>
+      </c>
+      <c r="K26" s="7" t="n">
+        <f aca="false">AVERAGE(B26:I26)</f>
+        <v>0.08830625</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D14:G14"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/PAPER_METEO/results.xlsx
+++ b/PAPER_METEO/results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t xml:space="preserve">YEAR</t>
   </si>
@@ -231,7 +231,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -694,8 +694,8 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1147,8 +1147,8 @@
       <c r="C17" s="4" t="n">
         <v>0.0701</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>13</v>
+      <c r="D17" s="4" t="n">
+        <v>0.0954</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>0.1204</v>
@@ -1170,85 +1170,175 @@
       <c r="A18" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>13</v>
+      <c r="B18" s="4" t="n">
+        <v>0.0761</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>0.0758</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>0.0828</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>0.0732</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>0.0722</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>0.1003</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>0.0899</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="B19" s="4" t="n">
+        <v>0.0785</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0.0712</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>0.0826</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>0.0826</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>0.0522</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>0.1013</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <v>0.0958</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="B20" s="4" t="n">
+        <v>0.0822</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>0.0702</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>0.0829</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>0.1233</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>0.0609</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <v>0.0999</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <v>0.1041</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="B21" s="4" t="n">
+        <v>0.0996</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>0.0769</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>0.0854</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>0.1266</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>0.0786</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>0.0737</v>
+      </c>
+      <c r="H21" s="4" t="n">
+        <v>0.0846</v>
+      </c>
+      <c r="I21" s="4" t="n">
+        <v>0.0996</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="B22" s="4" t="n">
+        <v>0.0916</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>0.0854</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>0.1266</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>0.0766</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>0.0671</v>
+      </c>
+      <c r="H22" s="4" t="n">
+        <v>0.1017</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v>0.1017</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -1276,39 +1366,39 @@
       <c r="A26" s="8"/>
       <c r="B26" s="7" t="n">
         <f aca="false">AVERAGE(B16:B25)</f>
-        <v>0.08705</v>
+        <v>0.0860142857142857</v>
       </c>
       <c r="C26" s="7" t="n">
         <f aca="false">AVERAGE(C16:C25)</f>
-        <v>0.07075</v>
+        <v>0.0736571428571429</v>
       </c>
       <c r="D26" s="7" t="n">
         <f aca="false">AVERAGE(D16:D25)</f>
-        <v>0.0925</v>
+        <v>0.0867142857142857</v>
       </c>
       <c r="E26" s="7" t="n">
         <f aca="false">AVERAGE(E16:E25)</f>
-        <v>0.1168</v>
+        <v>0.124371428571429</v>
       </c>
       <c r="F26" s="7" t="n">
         <f aca="false">AVERAGE(F16:F25)</f>
-        <v>0.07565</v>
+        <v>0.0759</v>
       </c>
       <c r="G26" s="7" t="n">
         <f aca="false">AVERAGE(G16:G25)</f>
-        <v>0.07145</v>
+        <v>0.067</v>
       </c>
       <c r="H26" s="7" t="n">
         <f aca="false">AVERAGE(H16:H25)</f>
-        <v>0.0989</v>
+        <v>0.0979428571428571</v>
       </c>
       <c r="I26" s="7" t="n">
         <f aca="false">AVERAGE(I16:I25)</f>
-        <v>0.09335</v>
+        <v>0.0968285714285714</v>
       </c>
       <c r="K26" s="7" t="n">
         <f aca="false">AVERAGE(B26:I26)</f>
-        <v>0.08830625</v>
+        <v>0.0885535714285714</v>
       </c>
     </row>
   </sheetData>

--- a/PAPER_METEO/results.xlsx
+++ b/PAPER_METEO/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t xml:space="preserve">YEAR</t>
   </si>
@@ -59,10 +59,7 @@
     <t xml:space="preserve">FOLD</t>
   </si>
   <si>
-    <t xml:space="preserve">3 features</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
+    <t xml:space="preserve">1f</t>
   </si>
 </sst>
 </file>
@@ -178,7 +175,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -223,6 +220,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -254,8 +255,8 @@
   </sheetPr>
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -321,12 +322,14 @@
         <v>0.155</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.0895</v>
+        <v>0.0836</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>0.0804</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="4" t="n">
+        <v>0.0795</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -348,12 +351,14 @@
         <v>0.1503</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.0832</v>
+        <v>0.081</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>0.0751</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4" t="n">
+        <v>0.0724</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -375,12 +380,14 @@
         <v>0.1293</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.0916</v>
+        <v>0.0861</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>0.086</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4" t="n">
+        <v>0.0815</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -402,12 +409,14 @@
         <v>0.1264</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.1265</v>
+        <v>0.1268</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>0.1266</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4" t="n">
+        <v>0.1246</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -429,12 +438,14 @@
         <v>0.1049</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.0805</v>
+        <v>0.0768</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>0.0772</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4" t="n">
+        <v>0.0751</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -456,12 +467,14 @@
         <v>0.0972</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>0.0665</v>
+        <v>0.0677</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>0.0662</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="4" t="n">
+        <v>0.0649</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -483,12 +496,14 @@
         <v>0.0976</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.0952</v>
+        <v>0.095</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>0.0961</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4" t="n">
+        <v>0.0958</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -510,12 +525,14 @@
         <v>0.1103</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.1091</v>
+        <v>0.1053</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>0.0955</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4" t="n">
+        <v>0.0962</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
@@ -543,15 +560,15 @@
       </c>
       <c r="G10" s="7" t="n">
         <f aca="false">AVERAGE(G2:G9)</f>
-        <v>0.0927625</v>
+        <v>0.0902875</v>
       </c>
       <c r="H10" s="7" t="n">
         <f aca="false">AVERAGE(H2:H9)</f>
         <v>0.0878875</v>
       </c>
-      <c r="I10" s="7" t="e">
+      <c r="I10" s="7" t="n">
         <f aca="false">AVERAGE(I2:I9)</f>
-        <v>#DIV/0!</v>
+        <v>0.08625</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -692,10 +709,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -704,706 +721,780 @@
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>2017</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>2018</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>2019</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>2020</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>2021</v>
-      </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>0.0707</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>0.0987</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>0.1133</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>0.0812</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.0801</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.1057</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.0889</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="B3" s="4" t="n">
-        <v>0.0919</v>
+        <v>0.0841</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.0718</v>
+        <v>0.0783</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.1019</v>
+        <v>0.0985</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.1131</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.0774</v>
+        <v>0.0822</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.0687</v>
+        <v>0.0777</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.0916</v>
+        <v>0.106</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.1099</v>
-      </c>
+        <v>0.0921</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.0798</v>
+        <v>0.1053</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.0838</v>
+        <v>0.0756</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.0903</v>
+        <v>0.1057</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.1226</v>
+        <v>0.1202</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.0754</v>
+        <v>0.0797</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.0748</v>
+        <v>0.0712</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.0999</v>
+        <v>0.0915</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.081</v>
+        <v>0.0935</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.0829</v>
+        <v>0.083</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.0775</v>
+        <v>0.0916</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.1372</v>
+        <v>0.1224</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.0806</v>
+        <v>0.0773</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.0548</v>
+        <v>0.076</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.1013</v>
+        <v>0.1001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.1026</v>
+        <v>0.0994</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.091</v>
+        <v>0.0907</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.0773</v>
+        <v>0.089</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0.085</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.1235</v>
+        <v>0.1378</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.0702</v>
+        <v>0.0843</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.0595</v>
+        <v>0.0555</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>0.0999</v>
+        <v>0.1012</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.1076</v>
+        <v>0.1044</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.1038</v>
+        <v>0.0884</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.0852</v>
+        <v>0.076</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.0909</v>
+        <v>0.0882</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.1265</v>
+        <v>0.1234</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>0.0823</v>
+        <v>0.0742</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>0.0782</v>
+        <v>0.0577</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>0.0849</v>
+        <v>0.1001</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>0.1125</v>
+        <v>0.1137</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0.0961</v>
+        <v>0.1037</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.0881</v>
+        <v>0.0886</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.0738</v>
+        <v>0.0883</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.1403</v>
+        <v>0.1266</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>0.083</v>
+        <v>0.0816</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.0702</v>
+        <v>0.0791</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>0.1015</v>
+        <v>0.0846</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.1078</v>
+        <v>0.1097</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0.1017</v>
+        <v>0.0928</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0.0854</v>
+        <v>0.0881</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.1066</v>
+        <v>0.077</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.1297</v>
+        <v>0.1401</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>0.0847</v>
+        <v>0.0857</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.054</v>
+        <v>0.0778</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>0.0975</v>
+        <v>0.1018</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.1306</v>
+        <v>0.1161</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.0902</v>
+        <v>0.1012</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.0889</v>
+        <v>0.0862</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.1032</v>
+        <v>0.0993</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0.1315</v>
+        <v>0.1286</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>0.0847</v>
+        <v>0.0884</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.054</v>
+        <v>0.0596</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>0.0875</v>
+        <v>0.0974</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.1306</v>
+        <v>0.1271</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>0.0813</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0.0898</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.1056</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>0.1316</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>0.0816</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>0.0714</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>0.0875</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>0.1131</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>0.0768</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>0.0976</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.0878</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>0.1208</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>0.0854</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>0.0705</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>0.0821</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>0.1007</v>
-      </c>
-    </row>
-    <row r="12" s="8" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="n">
-        <f aca="false">AVERAGE(B2:B11)</f>
-        <v>0.08953</v>
-      </c>
-      <c r="C12" s="7" t="n">
-        <f aca="false">AVERAGE(C2:C11)</f>
-        <v>0.08317</v>
-      </c>
-      <c r="D12" s="7" t="n">
-        <f aca="false">AVERAGE(D2:D11)</f>
-        <v>0.09157</v>
-      </c>
-      <c r="E12" s="7" t="n">
-        <f aca="false">AVERAGE(E2:E11)</f>
-        <v>0.12654</v>
-      </c>
-      <c r="F12" s="7" t="n">
-        <f aca="false">AVERAGE(F2:F11)</f>
-        <v>0.08049</v>
-      </c>
-      <c r="G12" s="7" t="n">
-        <f aca="false">AVERAGE(G2:G11)</f>
-        <v>0.06648</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <f aca="false">AVERAGE(H2:H11)</f>
-        <v>0.09519</v>
-      </c>
-      <c r="I12" s="7" t="n">
-        <f aca="false">AVERAGE(I2:I11)</f>
-        <v>0.10912</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="12" t="n">
-        <f aca="false">AVERAGE(B12:I12)</f>
-        <v>0.09276125</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="13" t="s">
+      <c r="B12" s="4" t="n">
+        <v>0.0743</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>0.0982</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0.0894</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>0.1203</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>0.0883</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>0.0818</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>0.1027</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7" t="n">
+        <f aca="false">AVERAGE(B3:B12)</f>
+        <v>0.09153</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <f aca="false">AVERAGE(C3:C12)</f>
+        <v>0.08528</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <f aca="false">AVERAGE(D3:D12)</f>
+        <v>0.09286</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <f aca="false">AVERAGE(E3:E12)</f>
+        <v>0.12641</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <f aca="false">AVERAGE(F3:F12)</f>
+        <v>0.08233</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <f aca="false">AVERAGE(G3:G12)</f>
+        <v>0.0702</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <f aca="false">AVERAGE(H3:H12)</f>
+        <v>0.0952</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <f aca="false">AVERAGE(I3:I12)</f>
+        <v>0.10903</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="13" t="n">
+        <f aca="false">AVERAGE(B13:I13)</f>
+        <v>0.094105</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B16" s="2" t="n">
         <v>2014</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C16" s="2" t="n">
         <v>2015</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D16" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E16" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F16" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G16" s="2" t="n">
         <v>2019</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H16" s="2" t="n">
         <v>2020</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I16" s="2" t="n">
         <v>2021</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>0.0714</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>0.0925</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v>0.1132</v>
-      </c>
-      <c r="F16" s="4" t="n">
-        <v>0.0771</v>
-      </c>
-      <c r="G16" s="4" t="n">
-        <v>0.0785</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>0.1055</v>
-      </c>
-      <c r="I16" s="4" t="n">
-        <v>0.0833</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>0.0971</v>
+        <v>0.0775</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>0.0701</v>
+        <v>0.0649</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>0.0954</v>
+        <v>0.0868</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0.1204</v>
+        <v>0.1138</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>0.0742</v>
+        <v>0.0657</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>0.0644</v>
+        <v>0.0754</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>0.0923</v>
+        <v>0.1075</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>0.1034</v>
+        <v>0.0817</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>0.0761</v>
+        <v>0.0826</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>0.0758</v>
+        <v>0.062</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>0.0828</v>
+        <v>0.095</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>0.123</v>
+        <v>0.1204</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>0.0732</v>
+        <v>0.064</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>0.0722</v>
+        <v>0.0737</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>0.1003</v>
+        <v>0.0959</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>0.0899</v>
+        <v>0.1013</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>0.0785</v>
+        <v>0.0735</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>0.0712</v>
+        <v>0.0786</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>0.0826</v>
+        <v>0.0735</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>0.1375</v>
+        <v>0.1236</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>0.0826</v>
+        <v>0.0719</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>0.0522</v>
+        <v>0.0619</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>0.1013</v>
+        <v>0.1001</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>0.0958</v>
+        <v>0.0882</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>0.0822</v>
+        <v>0.0638</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>0.0702</v>
+        <v>0.0647</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>0.0829</v>
+        <v>0.0867</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>0.1233</v>
+        <v>0.1385</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>0.069</v>
+        <v>0.0736</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>0.0609</v>
+        <v>0.0487</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>0.0999</v>
+        <v>0.1012</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>0.1041</v>
+        <v>0.0936</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>0.0996</v>
+        <v>0.0792</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>0.0769</v>
+        <v>0.0579</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>0.0854</v>
+        <v>0.0787</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>0.1266</v>
+        <v>0.1239</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>0.0786</v>
+        <v>0.0703</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>0.0737</v>
+        <v>0.0609</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>0.0846</v>
+        <v>0.1006</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>0.0996</v>
+        <v>0.1013</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>0.0916</v>
+        <v>0.0939</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>0.08</v>
+        <v>0.0725</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>0.0854</v>
+        <v>0.078</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>0.1266</v>
+        <v>0.1287</v>
       </c>
       <c r="F22" s="4" t="n">
-        <v>0.0766</v>
+        <v>0.0717</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>0.0671</v>
+        <v>0.0713</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>0.1017</v>
+        <v>0.085</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>0.1017</v>
+        <v>0.0953</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>0.0931</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>0.0752</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>0.1138</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>0.0783</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>0.0727</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <v>0.0987</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>0.0925</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>0.0846</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>0.0861</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>0.1326</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>0.0807</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>0.0545</v>
+      </c>
+      <c r="H24" s="4" t="n">
+        <v>0.0971</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <v>0.1213</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>0.0742</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>0.0784</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>0.0826</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>0.1315</v>
+      </c>
+      <c r="F25" s="4" t="n">
+        <v>0.0872</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>0.0674</v>
+      </c>
+      <c r="H25" s="4" t="n">
+        <v>0.0874</v>
+      </c>
+      <c r="I25" s="4" t="n">
+        <v>0.0964</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7" t="n">
-        <f aca="false">AVERAGE(B16:B25)</f>
-        <v>0.0860142857142857</v>
-      </c>
-      <c r="C26" s="7" t="n">
-        <f aca="false">AVERAGE(C16:C25)</f>
-        <v>0.0736571428571429</v>
-      </c>
-      <c r="D26" s="7" t="n">
-        <f aca="false">AVERAGE(D16:D25)</f>
-        <v>0.0867142857142857</v>
-      </c>
-      <c r="E26" s="7" t="n">
-        <f aca="false">AVERAGE(E16:E25)</f>
-        <v>0.124371428571429</v>
-      </c>
-      <c r="F26" s="7" t="n">
-        <f aca="false">AVERAGE(F16:F25)</f>
-        <v>0.0759</v>
-      </c>
-      <c r="G26" s="7" t="n">
-        <f aca="false">AVERAGE(G16:G25)</f>
-        <v>0.067</v>
-      </c>
-      <c r="H26" s="7" t="n">
-        <f aca="false">AVERAGE(H16:H25)</f>
-        <v>0.0979428571428571</v>
-      </c>
-      <c r="I26" s="7" t="n">
-        <f aca="false">AVERAGE(I16:I25)</f>
-        <v>0.0968285714285714</v>
-      </c>
-      <c r="K26" s="7" t="n">
-        <f aca="false">AVERAGE(B26:I26)</f>
-        <v>0.0885535714285714</v>
+      <c r="B26" s="4" t="n">
+        <v>0.0647</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>0.0691</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>0.1187</v>
+      </c>
+      <c r="F26" s="4" t="n">
+        <v>0.0872</v>
+      </c>
+      <c r="G26" s="4" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="H26" s="4" t="n">
+        <v>0.0821</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <v>0.0846</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7" t="n">
+        <f aca="false">AVERAGE(B17:B26)</f>
+        <v>0.0795</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <f aca="false">AVERAGE(C17:C26)</f>
+        <v>0.07238</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <f aca="false">AVERAGE(D17:D26)</f>
+        <v>0.08145</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <f aca="false">AVERAGE(E17:E26)</f>
+        <v>0.12455</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <f aca="false">AVERAGE(F17:F26)</f>
+        <v>0.07506</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <f aca="false">AVERAGE(G17:G26)</f>
+        <v>0.0649</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <f aca="false">AVERAGE(H17:H26)</f>
+        <v>0.09581</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <f aca="false">AVERAGE(I17:I26)</f>
+        <v>0.09624</v>
+      </c>
+      <c r="K27" s="7" t="n">
+        <f aca="false">AVERAGE(B27:I27)</f>
+        <v>0.08623625</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D14:G14"/>
+  <mergeCells count="2">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/PAPER_METEO/results.xlsx
+++ b/PAPER_METEO/results.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Φύλλο1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="features" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Φύλλο1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="features" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="fc_results" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="nnc" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="120">
   <si>
     <t xml:space="preserve">YEAR</t>
   </si>
@@ -60,6 +62,327 @@
   </si>
   <si>
     <t xml:space="preserve">1f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2014_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2015_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2014_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2015_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2014_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2015_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2014_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2015_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2014_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2015_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2014_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2015_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2014_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2015_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2014_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2015_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2014_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2015_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2014_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2015_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2016_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2017_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2016_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2017_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2016_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2017_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2016_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2017_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2016_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2017_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2016_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2017_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2016_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2017_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2016_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2017_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2016_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2017_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2016_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2017_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2018_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2019_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2018_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2019_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2018_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2019_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2018_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2019_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2018_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2019_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2018_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2019_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2018_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2019_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2018_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2019_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2018_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2019_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2018_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2019_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2020_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2021_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2020_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2021_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2020_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2021_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2020_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2021_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2020_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2021_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2020_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2021_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2020_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2021_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2020_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2021_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2020_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2021_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2020_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2021_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2022_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2023_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2022_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2023_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2022_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2023_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2022_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2023_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2022_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2023_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2022_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2023_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2022_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2023_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2022_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2023_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2022_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2023_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2022_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2023_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nnc</t>
   </si>
 </sst>
 </file>
@@ -175,7 +498,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -236,6 +559,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -248,6 +583,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -255,11 +696,11 @@
   </sheetPr>
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="13.34"/>
@@ -711,11 +1152,11 @@
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="8" style="4" width="11.53"/>
   </cols>
@@ -1504,4 +1945,1495 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12Σελίδα &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Y63"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="17.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="15" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="15" width="18.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="7" style="15" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="15" t="n">
+        <v>0.0739</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="15" t="n">
+        <v>0.0711</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="15" t="n">
+        <v>0.0744</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16" t="n">
+        <f aca="false">AVERAGE(B2:B11)</f>
+        <v>0.0731333333333333</v>
+      </c>
+      <c r="C12" s="16" t="e">
+        <f aca="false">AVERAGE(C2:C11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D12" s="16" t="e">
+        <f aca="false">AVERAGE(D2:D11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="e">
+        <f aca="false">AVERAGE(G2:G11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="16" t="e">
+        <f aca="false">AVERAGE(H2:H11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="16" t="e">
+        <f aca="false">AVERAGE(I2:I11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16" t="e">
+        <f aca="false">AVERAGE(B15:B24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25" s="16" t="e">
+        <f aca="false">AVERAGE(C15:C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="16" t="e">
+        <f aca="false">AVERAGE(D15:D24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16" t="e">
+        <f aca="false">AVERAGE(G15:G24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="16" t="e">
+        <f aca="false">AVERAGE(H15:H24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="16" t="e">
+        <f aca="false">AVERAGE(I15:I24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16" t="e">
+        <f aca="false">AVERAGE(B28:B37)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C38" s="16" t="e">
+        <f aca="false">AVERAGE(C28:C37)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="16" t="e">
+        <f aca="false">AVERAGE(D28:D37)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16" t="e">
+        <f aca="false">AVERAGE(G28:G37)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="16" t="e">
+        <f aca="false">AVERAGE(H28:H37)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="16" t="e">
+        <f aca="false">AVERAGE(I28:I37)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16" t="e">
+        <f aca="false">AVERAGE(B41:B50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C51" s="16" t="e">
+        <f aca="false">AVERAGE(C41:C50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D51" s="16" t="e">
+        <f aca="false">AVERAGE(D41:D50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16" t="e">
+        <f aca="false">AVERAGE(G41:G50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H51" s="16" t="e">
+        <f aca="false">AVERAGE(H41:H50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I51" s="16" t="e">
+        <f aca="false">AVERAGE(I41:I50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16" t="e">
+        <f aca="false">AVERAGE(B53:B62)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C63" s="16" t="e">
+        <f aca="false">AVERAGE(C53:C62)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D63" s="16" t="e">
+        <f aca="false">AVERAGE(D53:D62)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16" t="e">
+        <f aca="false">AVERAGE(G53:G62)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H63" s="16" t="e">
+        <f aca="false">AVERAGE(H53:H62)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I63" s="16" t="e">
+        <f aca="false">AVERAGE(I53:I62)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="16"/>
+      <c r="W63" s="16"/>
+      <c r="X63" s="16"/>
+      <c r="Y63" s="16"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12Σελίδα &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="17.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="15" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="18.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="15" t="n">
+        <v>0.0843</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="15" t="n">
+        <v>0.1041</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="15" t="n">
+        <v>0.0817</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="15" t="n">
+        <v>0.0806</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="15" t="n">
+        <v>0.0898</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="15" t="n">
+        <v>0.1026</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>0.0733</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16" t="n">
+        <f aca="false">AVERAGE(B2:B11)</f>
+        <v>0.0880571428571429</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="e">
+        <f aca="false">AVERAGE(E2:E11)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16" t="e">
+        <f aca="false">AVERAGE(B15:B24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16" t="e">
+        <f aca="false">AVERAGE(E15:E24)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16" t="e">
+        <f aca="false">AVERAGE(B28:B37)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16" t="e">
+        <f aca="false">AVERAGE(E28:E37)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16" t="e">
+        <f aca="false">AVERAGE(B41:B50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16" t="e">
+        <f aca="false">AVERAGE(E41:E50)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16" t="e">
+        <f aca="false">AVERAGE(B53:B62)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16" t="e">
+        <f aca="false">AVERAGE(E53:E62)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12Σελίδα &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/PAPER_METEO/results.xlsx
+++ b/PAPER_METEO/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="120">
   <si>
     <t xml:space="preserve">YEAR</t>
   </si>
@@ -82,15 +82,15 @@
     <t xml:space="preserve">dasi_meteo_2015_1</t>
   </si>
   <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">dasi_meteo_2014_2</t>
   </si>
   <si>
     <t xml:space="preserve">dasi_meteo_2015_2</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
     <t xml:space="preserve">dasi_meteo_2014_3</t>
   </si>
   <si>
@@ -100,13 +100,13 @@
     <t xml:space="preserve">dasi_meteo_2014_4</t>
   </si>
   <si>
+    <t xml:space="preserve">dasi_meteo_2015_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2014_5</t>
+  </si>
+  <si>
     <t xml:space="preserve">xxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2015_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2014_5</t>
   </si>
   <si>
     <t xml:space="preserve">dasi_meteo_2015_5</t>
@@ -498,7 +498,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -556,18 +556,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1954,892 +1942,895 @@
   </sheetPr>
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="17.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="15" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="15" width="18.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="7" style="15" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="17.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="4" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="18.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="7" style="4" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="15" t="n">
+      <c r="B2" s="4" t="n">
         <v>0.0739</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="I2" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>0.0711</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="15" t="n">
-        <v>0.0711</v>
-      </c>
-      <c r="C3" s="15" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>0.0744</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>0.0792</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="15" t="n">
-        <v>0.0744</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="F6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="H6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="F7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="F8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="H8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="F9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="15" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="15" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="F10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="H10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="15" t="s">
+      <c r="D11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16" t="n">
+      <c r="G11" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
-        <v>0.0731333333333333</v>
-      </c>
-      <c r="C12" s="16" t="e">
+        <v>0.07465</v>
+      </c>
+      <c r="C12" s="9" t="e">
         <f aca="false">AVERAGE(C2:C11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D12" s="16" t="e">
+      <c r="D12" s="9" t="e">
         <f aca="false">AVERAGE(D2:D11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16" t="e">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="e">
         <f aca="false">AVERAGE(G2:G11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="16" t="e">
+      <c r="H12" s="9" t="e">
         <f aca="false">AVERAGE(H2:H11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="16" t="e">
+      <c r="I12" s="9" t="e">
         <f aca="false">AVERAGE(I2:I11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16" t="e">
+    <row r="25" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="e">
         <f aca="false">AVERAGE(B15:B24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C25" s="16" t="e">
+      <c r="C25" s="9" t="e">
         <f aca="false">AVERAGE(C15:C24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="16" t="e">
+      <c r="D25" s="9" t="e">
         <f aca="false">AVERAGE(D15:D24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16" t="e">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9" t="e">
         <f aca="false">AVERAGE(G15:G24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="16" t="e">
+      <c r="H25" s="9" t="e">
         <f aca="false">AVERAGE(H15:H24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="16" t="e">
+      <c r="I25" s="9" t="e">
         <f aca="false">AVERAGE(I15:I24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="I27" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16" t="e">
+    <row r="38" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9" t="e">
         <f aca="false">AVERAGE(B28:B37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C38" s="16" t="e">
+      <c r="C38" s="9" t="e">
         <f aca="false">AVERAGE(C28:C37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="16" t="e">
+      <c r="D38" s="9" t="e">
         <f aca="false">AVERAGE(D28:D37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16" t="e">
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9" t="e">
         <f aca="false">AVERAGE(G28:G37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="16" t="e">
+      <c r="H38" s="9" t="e">
         <f aca="false">AVERAGE(H28:H37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="16" t="e">
+      <c r="I38" s="9" t="e">
         <f aca="false">AVERAGE(I28:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="16" t="s">
+      <c r="I40" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16" t="e">
+    <row r="51" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9" t="e">
         <f aca="false">AVERAGE(B41:B50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C51" s="16" t="e">
+      <c r="C51" s="9" t="e">
         <f aca="false">AVERAGE(C41:C50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D51" s="16" t="e">
+      <c r="D51" s="9" t="e">
         <f aca="false">AVERAGE(D41:D50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16" t="e">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9" t="e">
         <f aca="false">AVERAGE(G41:G50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="16" t="e">
+      <c r="H51" s="9" t="e">
         <f aca="false">AVERAGE(H41:H50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I51" s="16" t="e">
+      <c r="I51" s="9" t="e">
         <f aca="false">AVERAGE(I41:I50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16"/>
-      <c r="W51" s="16"/>
-      <c r="X51" s="16"/>
-      <c r="Y51" s="16"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G52" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="16" t="s">
+      <c r="H52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="16" t="s">
+      <c r="I52" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F55" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F58" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F59" s="15" t="s">
+      <c r="F59" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="F60" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="F61" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F62" s="15" t="s">
+      <c r="F62" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="63" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16" t="e">
+    <row r="63" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9" t="e">
         <f aca="false">AVERAGE(B53:B62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C63" s="16" t="e">
+      <c r="C63" s="9" t="e">
         <f aca="false">AVERAGE(C53:C62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D63" s="16" t="e">
+      <c r="D63" s="9" t="e">
         <f aca="false">AVERAGE(D53:D62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16" t="e">
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9" t="e">
         <f aca="false">AVERAGE(G53:G62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="16" t="e">
+      <c r="H63" s="9" t="e">
         <f aca="false">AVERAGE(H53:H62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I63" s="16" t="e">
+      <c r="I63" s="9" t="e">
         <f aca="false">AVERAGE(I53:I62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="16"/>
-      <c r="U63" s="16"/>
-      <c r="V63" s="16"/>
-      <c r="W63" s="16"/>
-      <c r="X63" s="16"/>
-      <c r="Y63" s="16"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2859,570 +2850,582 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="17.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="15" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="18.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="17.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="4" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="18.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="15" t="n">
+      <c r="B2" s="4" t="n">
         <v>0.0843</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="4" t="n">
+        <v>0.0766</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>0.1041</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="15" t="n">
-        <v>0.1041</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="B4" s="4" t="n">
+        <v>0.0832</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>21</v>
+      <c r="E4" s="4" t="n">
+        <v>0.0788</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="15" t="n">
+      <c r="B5" s="4" t="n">
         <v>0.0817</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.0835</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="15" t="n">
+      <c r="B6" s="4" t="n">
         <v>0.0806</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>21</v>
+      <c r="E6" s="4" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>21</v>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="15" t="n">
+      <c r="B8" s="4" t="n">
         <v>0.0898</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>21</v>
+      <c r="E8" s="4" t="n">
+        <v>0.0837</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="15" t="n">
+      <c r="B9" s="4" t="n">
         <v>0.1026</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="15" t="n">
+      <c r="B11" s="4" t="n">
         <v>0.0733</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16" t="n">
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
-        <v>0.0880571428571429</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16" t="e">
+        <v>0.08745</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="n">
         <f aca="false">AVERAGE(E2:E11)</f>
-        <v>#DIV/0!</v>
+        <v>0.08052</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16" t="e">
+    <row r="25" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="e">
         <f aca="false">AVERAGE(B15:B24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16" t="e">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="e">
         <f aca="false">AVERAGE(E15:E24)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16" t="e">
+    <row r="38" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9" t="e">
         <f aca="false">AVERAGE(B28:B37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16" t="e">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="e">
         <f aca="false">AVERAGE(E28:E37)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16" t="e">
+    <row r="51" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9" t="e">
         <f aca="false">AVERAGE(B41:B50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16" t="e">
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9" t="e">
         <f aca="false">AVERAGE(E41:E50)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="63" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16" t="e">
+    <row r="63" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9" t="e">
         <f aca="false">AVERAGE(B53:B62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16" t="e">
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9" t="e">
         <f aca="false">AVERAGE(E53:E62)</f>
         <v>#DIV/0!</v>
       </c>

--- a/PAPER_METEO/results.xlsx
+++ b/PAPER_METEO/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="120">
   <si>
     <t xml:space="preserve">YEAR</t>
   </si>
@@ -106,19 +106,19 @@
     <t xml:space="preserve">dasi_meteo_2014_5</t>
   </si>
   <si>
+    <t xml:space="preserve">dasi_meteo_2015_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2014_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2015_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2014_7</t>
+  </si>
+  <si>
     <t xml:space="preserve">xxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2015_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2014_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2015_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2014_7</t>
   </si>
   <si>
     <t xml:space="preserve">dasi_meteo_2015_7</t>
@@ -1140,7 +1140,7 @@
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -1942,8 +1942,8 @@
   </sheetPr>
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2020,6 +2020,9 @@
         <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2043,6 +2046,9 @@
         <v>19</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2066,6 +2072,9 @@
         <v>17</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2073,54 +2082,60 @@
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="4" t="n">
+        <v>0.0744</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="G7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>17</v>
@@ -2135,6 +2150,9 @@
         <v>17</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2155,7 +2173,7 @@
         <v>34</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>17</v>
@@ -2181,7 +2199,7 @@
         <v>17</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2202,13 +2220,16 @@
       </c>
       <c r="G11" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
-        <v>0.07465</v>
+        <v>0.0768333333333333</v>
       </c>
       <c r="C12" s="9" t="e">
         <f aca="false">AVERAGE(C2:C11)</f>
@@ -2283,6 +2304,9 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>41</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>42</v>
@@ -2850,8 +2874,8 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2934,7 +2958,7 @@
         <v>0.0806</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>0.08</v>
@@ -2942,13 +2966,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>19</v>
@@ -2956,7 +2980,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>0.0898</v>

--- a/PAPER_METEO/results.xlsx
+++ b/PAPER_METEO/results.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="features" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="fc_results" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="nnc" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Φύλλο5" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="124">
   <si>
     <t xml:space="preserve">YEAR</t>
   </si>
@@ -58,6 +59,9 @@
     <t xml:space="preserve">Features selected</t>
   </si>
   <si>
+    <t xml:space="preserve">METHOD</t>
+  </si>
+  <si>
     <t xml:space="preserve">FOLD</t>
   </si>
   <si>
@@ -76,181 +80,190 @@
     <t xml:space="preserve">dasi_meteo_2014_1</t>
   </si>
   <si>
+    <t xml:space="preserve">xxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2015_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2014_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2015_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2014_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2015_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2014_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2015_4</t>
+  </si>
+  <si>
     <t xml:space="preserve">R</t>
   </si>
   <si>
-    <t xml:space="preserve">dasi_meteo_2015_1</t>
+    <t xml:space="preserve">dasi_meteo_2014_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2015_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2014_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">χχχ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2015_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2014_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2015_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2014_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2015_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2014_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2015_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2014_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2015_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2016_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2017_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2016_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2017_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2016_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2017_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2016_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2017_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2016_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2017_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2016_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2017_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2016_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2017_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2016_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2017_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2016_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2017_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2016_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2017_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2018_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2019_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2018_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2019_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2018_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2019_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2018_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2019_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2018_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2019_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2018_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2019_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2018_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2019_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2018_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2019_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasi_meteo_2018_9</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2014_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2015_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2014_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2015_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2014_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2015_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2014_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2015_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2014_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2015_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2014_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2015_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2014_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2015_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2014_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2015_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2014_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2015_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2016_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2017_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2016_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2017_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2016_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2017_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2016_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2017_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2016_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2017_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2016_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2017_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2016_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2017_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2016_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2017_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2016_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2017_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2016_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2017_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2018_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2019_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2018_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2019_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2018_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2019_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2018_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2019_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2018_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2019_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2018_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2019_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2018_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2019_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2018_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2019_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dasi_meteo_2018_9</t>
   </si>
   <si>
     <t xml:space="preserve">dasi_meteo_2019_9</t>
@@ -685,7 +698,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1087,6 +1100,9 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1140,7 +1156,7 @@
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -1164,7 +1180,7 @@
     </row>
     <row r="2" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>2014</v>
@@ -1556,7 +1572,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -1564,7 +1580,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>2014</v>
@@ -1942,8 +1958,8 @@
   </sheetPr>
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1956,48 +1972,48 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="I1" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.0739</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>0.0716</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0.0875</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.0744</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0.0599</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.0761</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2005,25 +2021,25 @@
         <v>20</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.0711</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>0.0716</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.0862</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
+      <c r="G3" s="4" t="n">
+        <v>0.0647</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>0.0686</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0.0759</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2031,25 +2047,25 @@
         <v>22</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.0744</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>0.0721</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0.0714</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>19</v>
+      <c r="G4" s="4" t="n">
+        <v>0.0751</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.0646</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,201 +2073,210 @@
         <v>24</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.0792</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>0.0831</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.0774</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.0831</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.0731</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.0744</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>0.0776</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.0716</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.067</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.0726</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0.0819</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.0684</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.088</v>
+        <v>0.0871</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.0887</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.0926</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>0.0742</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0.0698</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>0.0892</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0.0887</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.0882</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.0815</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>0.0776</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>0.0959</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.088</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.0711</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>0.0702</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.0688</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.0764</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>0.0812</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>0.0769</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.0513</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>17</v>
+        <v>39</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>0.0961</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>0.0843</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
-        <v>0.0768333333333333</v>
-      </c>
-      <c r="C12" s="9" t="e">
+        <v>0.07953</v>
+      </c>
+      <c r="C12" s="9" t="n">
         <f aca="false">AVERAGE(C2:C11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="9" t="e">
+        <v>0.0804666666666667</v>
+      </c>
+      <c r="D12" s="9" t="n">
         <f aca="false">AVERAGE(D2:D11)</f>
-        <v>#DIV/0!</v>
+        <v>0.0764428571428572</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="9" t="e">
+      <c r="G12" s="9" t="n">
         <f aca="false">AVERAGE(G2:G11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="9" t="e">
+        <v>0.0782777777777778</v>
+      </c>
+      <c r="H12" s="9" t="n">
         <f aca="false">AVERAGE(H2:H11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="9" t="e">
+        <v>0.0750777777777778</v>
+      </c>
+      <c r="I12" s="9" t="n">
         <f aca="false">AVERAGE(I2:I11)</f>
-        <v>#DIV/0!</v>
+        <v>0.0713166666666667</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -2272,108 +2297,237 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="I14" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
+      <c r="C16" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2423,102 +2577,189 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="H27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="I27" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2568,102 +2809,102 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="H40" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="I40" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2713,102 +2954,102 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C52" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="H52" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="I52" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2888,21 +3129,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>0.0843</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>0.0766</v>
@@ -2919,7 +3160,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2952,13 +3193,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>0.0806</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>0.08</v>
@@ -2966,27 +3207,27 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>0.0898</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>0.0837</v>
@@ -2994,44 +3235,44 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>0.1026</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>0.0733</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3049,93 +3290,93 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3153,90 +3394,90 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3254,90 +3495,90 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3355,90 +3596,90 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3452,6 +3693,241 @@
       <c r="E63" s="9" t="e">
         <f aca="false">AVERAGE(E53:E62)</f>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12Σελίδα &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.45"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>0.1238</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.0921</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0.0968</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.0804</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>0.1194</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0.1125</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.0917</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0.0849</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.1503</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.0751</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>0.1295</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.1188</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.0945</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.1293</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.086</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>0.1268</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.1265</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.1261</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.1265</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.1264</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.1266</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.1048</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.1497</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.0929</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.0921</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.1049</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.0772</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>0.0944</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.0966</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.0703</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.0839</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.0972</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.0662</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>0.0956</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.0955</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0.0976</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.0961</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>0.1106</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0.1057</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0.1103</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.0955</v>
       </c>
     </row>
   </sheetData>

--- a/PAPER_METEO/results.xlsx
+++ b/PAPER_METEO/results.xlsx
@@ -5,14 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="features" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="fc_results" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="nnc" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Φύλλο5" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="adam" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="nnc" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="nncStd" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="bayesnn" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="dnn" sheetId="8" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="219">
   <si>
     <t xml:space="preserve">YEAR</t>
   </si>
@@ -395,7 +398,292 @@
     <t xml:space="preserve">dasi_meteo_2023_10</t>
   </si>
   <si>
+    <t xml:space="preserve">adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fold_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fold_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fold_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fold_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fold_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fold_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fold_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fold_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fold_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fold_10</t>
+  </si>
+  <si>
     <t xml:space="preserve">nnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bayesnn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dnn</t>
   </si>
 </sst>
 </file>
@@ -511,7 +799,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -569,6 +857,34 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -697,7 +1013,7 @@
   </sheetPr>
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -1156,7 +1472,7 @@
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -1958,7 +2274,7 @@
   </sheetPr>
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -3113,586 +3429,154 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="17.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="4" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="18.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.45"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="9" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>123</v>
-      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>0.0843</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>0.0766</v>
-      </c>
+      <c r="A2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>0.1041</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="A3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>0.0832</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.0788</v>
-      </c>
+      <c r="A4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.0423</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>0.0817</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.0835</v>
-      </c>
+      <c r="A5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.0806</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.08</v>
-      </c>
+      <c r="A6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.0846</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="A7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.0423</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.0898</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0.0837</v>
-      </c>
+      <c r="A8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0.0564</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.1026</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>0.0733</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9" t="n">
+      <c r="A9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="15" t="n">
+        <v>0.0631</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>0.0423</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="16" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
-        <v>0.08745</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="n">
-        <f aca="false">AVERAGE(E2:E11)</f>
-        <v>0.08052</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9" t="e">
-        <f aca="false">AVERAGE(B15:B24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="e">
-        <f aca="false">AVERAGE(E15:E24)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9" t="e">
-        <f aca="false">AVERAGE(B28:B37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9" t="e">
-        <f aca="false">AVERAGE(E28:E37)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9" t="e">
-        <f aca="false">AVERAGE(B41:B50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9" t="e">
-        <f aca="false">AVERAGE(E41:E50)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9" t="e">
-        <f aca="false">AVERAGE(B53:B62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9" t="e">
-        <f aca="false">AVERAGE(E53:E62)</f>
-        <v>#DIV/0!</v>
+        <v>0.0785</v>
       </c>
     </row>
   </sheetData>
@@ -3711,223 +3595,2008 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="17.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="4" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="18.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>0.0843</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0.0766</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>0.1041</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>0.0832</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.0788</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>0.0817</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.0835</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.0806</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>0.0898</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.0837</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>0.1026</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>0.0733</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="n">
+        <f aca="false">AVERAGE(B2:B11)</f>
+        <v>0.08745</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="n">
+        <f aca="false">AVERAGE(E2:E11)</f>
+        <v>0.08052</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="e">
+        <f aca="false">AVERAGE(B15:B24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="e">
+        <f aca="false">AVERAGE(E15:E24)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9" t="e">
+        <f aca="false">AVERAGE(B28:B37)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="e">
+        <f aca="false">AVERAGE(E28:E37)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9" t="e">
+        <f aca="false">AVERAGE(B41:B50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9" t="e">
+        <f aca="false">AVERAGE(E41:E50)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9" t="e">
+        <f aca="false">AVERAGE(B53:B62)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9" t="e">
+        <f aca="false">AVERAGE(E53:E62)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12Σελίδα &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.4098</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.861</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.746</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.816</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.903</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.683</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.337</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2.027</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1.407</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.456</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="17" t="n">
+        <f aca="false">AVERAGE(B2:B11)</f>
+        <v>0.9965</v>
+      </c>
+      <c r="E12" s="17" t="n">
+        <f aca="false">AVERAGE(E2:E11)</f>
+        <v>0.6983</v>
+      </c>
+      <c r="H12" s="17" t="n">
+        <f aca="false">AVERAGE(H2:H11)</f>
+        <v>0.57408</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
+      <c r="D15" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="17" t="n">
+        <f aca="false">AVERAGE(B15:B24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="17" t="e">
+        <f aca="false">AVERAGE(E15:E24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="17" t="e">
+        <f aca="false">AVERAGE(H15:H24)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="17" t="e">
+        <f aca="false">AVERAGE(B27:B36)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="17" t="e">
+        <f aca="false">AVERAGE(E27:E36)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12Σελίδα &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>11.26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>0.1238</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>0.0921</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>0.0968</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.0804</v>
+      <c r="A2" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="18" t="n">
+        <v>0.1023</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="18" t="n">
+        <v>0.0898</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>11.11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B3" s="4" t="n">
+      <c r="A3" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="18" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="18" t="n">
         <v>0.1194</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="H3" s="0" t="n">
+        <v>0.2897</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="18" t="n">
+        <v>0.1224</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="18" t="n">
+        <v>0.1105</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="18" t="n">
+        <v>0.1079</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="18" t="n">
+        <v>0.1148</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="18" t="n">
+        <v>0.1258</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="18" t="n">
+        <v>0.1314</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="18" t="n">
+        <v>0.1153</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="I8" s="0" t="n">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="18" t="n">
+        <v>0.1265</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="I9" s="0" t="n">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="18" t="n">
+        <v>0.1347</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="I10" s="0" t="n">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="18" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="I11" s="0" t="n">
+        <f aca="false">STDEV(I1:I10)</f>
+        <v>0.343428789319319</v>
+      </c>
+    </row>
+    <row r="12" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="20" t="n">
+        <f aca="false">AVERAGE(B2:B11)</f>
+        <v>0.12143</v>
+      </c>
+      <c r="C12" s="21" t="n">
+        <f aca="false">AVERAGE(C2:C11)</f>
+        <v>0.3342</v>
+      </c>
+      <c r="G12" s="20" t="n">
+        <f aca="false">AVERAGE(G2:G11)</f>
+        <v>0.108625</v>
+      </c>
+      <c r="H12" s="21" t="n">
+        <f aca="false">AVERAGE(H2:H11)</f>
+        <v>0.279425</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="18"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12Σελίδα &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:XFD51"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="18" t="n">
         <v>0.1125</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0.0917</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0.0849</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0.1503</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.0751</v>
+      <c r="C2" s="0" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="18" t="n">
+        <v>0.0956</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="18" t="n">
+        <v>0.1305</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="18" t="n">
+        <v>0.1262</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.173</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>0.1295</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>0.1188</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.1012</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.0945</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.1293</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.086</v>
+      <c r="A4" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="18" t="n">
+        <v>0.1287</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="18" t="n">
+        <v>0.1132</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.0726</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>0.1268</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>0.1265</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.1261</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.1265</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.1264</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.1266</v>
+      <c r="A5" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="18" t="n">
+        <v>0.1182</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="18" t="n">
+        <v>0.1199</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.1048</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.1497</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.0929</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.0921</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.1049</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.0772</v>
+      <c r="A6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="18" t="n">
+        <v>0.1305</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="18" t="n">
+        <v>0.1184</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.0944</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.0966</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.0703</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.0839</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.0972</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.0662</v>
+      <c r="A7" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="18" t="n">
+        <v>0.1393</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="18" t="n">
+        <v>0.1204</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.0949</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.0956</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0.0955</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0.0976</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.0961</v>
+      <c r="A8" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="18" t="n">
+        <v>0.1252</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="18" t="n">
+        <v>0.1255</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.133</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.1106</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.129</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.108</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.1057</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.1103</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.0955</v>
+      <c r="A9" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="18" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="18" t="n">
+        <v>0.1481</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="18" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="20" t="n">
+        <f aca="false">AVERAGE(B2:B11)</f>
+        <v>0.1301</v>
+      </c>
+      <c r="C12" s="21" t="n">
+        <f aca="false">AVERAGE(C2:C11)</f>
+        <v>0.0582</v>
+      </c>
+      <c r="F12" s="20" t="n">
+        <f aca="false">AVERAGE(F2:F11)</f>
+        <v>0.117028571428571</v>
+      </c>
+      <c r="G12" s="21" t="n">
+        <f aca="false">AVERAGE(G2:G11)</f>
+        <v>0.110785714285714</v>
+      </c>
+      <c r="XFC12" s="0"/>
+      <c r="XFD12" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="E15" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="E16" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="E17" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="E18" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="E19" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="E20" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="E21" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="E22" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="E23" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="E24" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20" t="e">
+        <f aca="false">AVERAGE(B15:B24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25" s="21" t="e">
+        <f aca="false">AVERAGE(C15:C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20" t="e">
+        <f aca="false">AVERAGE(F15:F24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="21" t="e">
+        <f aca="false">AVERAGE(G15:G24)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="E28" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="E29" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="E30" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="E31" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="E32" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="E33" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="E34" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="E35" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="E36" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="E37" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20" t="e">
+        <f aca="false">AVERAGE(B28:B37)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C38" s="21" t="e">
+        <f aca="false">AVERAGE(C28:C37)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20" t="e">
+        <f aca="false">AVERAGE(F28:F37)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="21" t="e">
+        <f aca="false">AVERAGE(G28:G37)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="E41" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="E42" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="E43" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="E44" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="E45" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="F45" s="18"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="E46" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F46" s="18"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="E47" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="F47" s="18"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="E48" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="F48" s="18"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="E49" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="F49" s="18"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="E50" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="F50" s="18"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="19"/>
+      <c r="B51" s="20" t="e">
+        <f aca="false">AVERAGE(B41:B50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C51" s="21" t="e">
+        <f aca="false">AVERAGE(C41:C50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E51" s="19"/>
+      <c r="F51" s="20" t="e">
+        <f aca="false">AVERAGE(F41:F50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G51" s="21" t="e">
+        <f aca="false">AVERAGE(G41:G50)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/PAPER_METEO/results.xlsx
+++ b/PAPER_METEO/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" state="visible" r:id="rId3"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="219">
   <si>
     <t xml:space="preserve">YEAR</t>
   </si>
@@ -799,7 +799,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -857,34 +857,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1013,7 +985,7 @@
   </sheetPr>
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -1472,7 +1444,7 @@
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -2274,7 +2246,7 @@
   </sheetPr>
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -3431,13 +3403,13 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.45"/>
   </cols>
@@ -3561,7 +3533,7 @@
       <c r="A10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="15" t="n">
+      <c r="B10" s="1" t="n">
         <v>0.0631</v>
       </c>
     </row>
@@ -3569,12 +3541,12 @@
       <c r="A11" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="15" t="n">
+      <c r="B11" s="1" t="n">
         <v>0.0423</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="16" t="n">
+      <c r="B12" s="10" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
         <v>0.0785</v>
       </c>
@@ -3597,7 +3569,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -4195,478 +4167,505 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>0.498</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>0.4098</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.957</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>0.655</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>1.69</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>0.937</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.861</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>0.805</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>0.746</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>0.497</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>0.455</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>0.677</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>0.816</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>0.903</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>0.512</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>0.683</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>0.596</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>0.538</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>0.337</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>0.67</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>0.486</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>0.626</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>2.027</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>1.407</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>0.456</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>0.762</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>0.527</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>0.755</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="17" t="n">
+      <c r="B12" s="10" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
         <v>0.9965</v>
       </c>
-      <c r="E12" s="17" t="n">
+      <c r="E12" s="10" t="n">
         <f aca="false">AVERAGE(E2:E11)</f>
         <v>0.6983</v>
       </c>
-      <c r="H12" s="17" t="n">
+      <c r="H12" s="10" t="n">
         <f aca="false">AVERAGE(H2:H11)</f>
         <v>0.57408</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="E15" s="0" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="n">
+        <v>0.0516</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="G17" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>0.0516</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.0347</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="17" t="n">
+      <c r="B25" s="10" t="n">
         <f aca="false">AVERAGE(B15:B24)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="17" t="e">
+        <v>0.121766666666667</v>
+      </c>
+      <c r="E25" s="10" t="n">
         <f aca="false">AVERAGE(E15:E24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="17" t="e">
+        <v>0.6045</v>
+      </c>
+      <c r="H25" s="10" t="e">
         <f aca="false">AVERAGE(H15:H24)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="17" t="e">
+      <c r="B37" s="10" t="e">
         <f aca="false">AVERAGE(B27:B36)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E37" s="17" t="e">
+      <c r="E37" s="10" t="e">
         <f aca="false">AVERAGE(E27:E36)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4687,262 +4686,402 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I1" s="0" t="n">
-        <v>11.26</v>
+      <c r="I1" s="1" t="n">
+        <v>10.81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="18" t="n">
+      <c r="B2" s="4" t="n">
         <v>0.1023</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.397</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="18" t="n">
+      <c r="G2" s="4" t="n">
         <v>0.0898</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>0.211</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>11.11</v>
+      <c r="I2" s="1" t="n">
+        <v>10.67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="18" t="n">
+      <c r="B3" s="4" t="n">
         <v>0.124</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.288</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="18" t="n">
+      <c r="G3" s="4" t="n">
         <v>0.1194</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>0.2897</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>11.85</v>
+      <c r="I3" s="1" t="n">
+        <v>10.67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="18" t="n">
+      <c r="B4" s="4" t="n">
         <v>0.1224</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.335</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="18" t="n">
+      <c r="G4" s="4" t="n">
         <v>0.1105</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.274</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>11.41</v>
+      <c r="I4" s="1" t="n">
+        <v>10.67</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="18" t="n">
+      <c r="B5" s="4" t="n">
         <v>0.1079</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>0.285</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="18" t="n">
+      <c r="G5" s="4" t="n">
         <v>0.1148</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>0.343</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>11.85</v>
+      <c r="I5" s="1" t="n">
+        <v>10.81</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="18" t="n">
+      <c r="B6" s="4" t="n">
         <v>0.1258</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.322</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="4" t="n">
+        <v>0.1157</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>0.1314</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.1175</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>0.1153</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.1187</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>0.1265</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>0.1347</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H10" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>11.85</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="18" t="n">
-        <v>0.1314</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0.384</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" s="18" t="s">
+      <c r="I10" s="1" t="n">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>11.26</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="18" t="n">
-        <v>0.1153</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0.334</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="I8" s="0" t="n">
-        <v>11.85</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="18" t="n">
-        <v>0.1265</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0.299</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="I9" s="0" t="n">
-        <v>10.96</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="18" t="n">
-        <v>0.1347</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.365</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="I10" s="0" t="n">
-        <v>11.41</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="18" t="n">
-        <v>0.124</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <f aca="false">STDEV(I1:I10)</f>
-        <v>0.343428789319319</v>
-      </c>
-    </row>
-    <row r="12" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="20" t="n">
+        <v>0.106645831298431</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="12" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
         <v>0.12143</v>
       </c>
-      <c r="C12" s="21" t="n">
+      <c r="C12" s="2" t="n">
         <f aca="false">AVERAGE(C2:C11)</f>
         <v>0.3342</v>
       </c>
-      <c r="G12" s="20" t="n">
+      <c r="G12" s="12" t="n">
         <f aca="false">AVERAGE(G2:G11)</f>
-        <v>0.108625</v>
-      </c>
-      <c r="H12" s="21" t="n">
+        <v>0.1118</v>
+      </c>
+      <c r="H12" s="2" t="n">
         <f aca="false">AVERAGE(H2:H11)</f>
-        <v>0.279425</v>
+        <v>0.2295875</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="18"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="n">
+        <v>11.56</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="n">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="n">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="n">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="n">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="D21" s="1" t="n">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="D22" s="1" t="n">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="D23" s="1" t="n">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="D24" s="1" t="n">
+        <f aca="false">STDEV(D14:D23)</f>
+        <v>0.209127818437539</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+      <c r="B25" s="12" t="e">
+        <f aca="false">AVERAGE(B15:B24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25" s="2" t="e">
+        <f aca="false">AVERAGE(C15:C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4962,639 +5101,649 @@
   </sheetPr>
   <dimension ref="A1:XFD51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="18" t="n">
+      <c r="B2" s="4" t="n">
         <v>0.1125</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.076</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="18" t="n">
+      <c r="F2" s="4" t="n">
         <v>0.0956</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>0.222</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="18" t="n">
+      <c r="B3" s="4" t="n">
         <v>0.1305</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.08</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="18" t="n">
+      <c r="F3" s="4" t="n">
         <v>0.1262</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>0.173</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="18" t="n">
+      <c r="B4" s="4" t="n">
         <v>0.1287</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.126</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="18" t="n">
+      <c r="F4" s="4" t="n">
         <v>0.1132</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>0.0726</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="18" t="n">
+      <c r="B5" s="4" t="n">
         <v>0.1182</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="18" t="n">
+      <c r="F5" s="4" t="n">
         <v>0.1199</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="18" t="n">
+      <c r="B6" s="4" t="n">
         <v>0.1305</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="18" t="n">
+      <c r="F6" s="4" t="n">
         <v>0.1184</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="18" t="n">
+      <c r="B7" s="4" t="n">
         <v>0.1393</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="18" t="n">
+      <c r="F7" s="4" t="n">
         <v>0.1204</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>0.0949</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="18" t="n">
+      <c r="B8" s="4" t="n">
         <v>0.1252</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F8" s="18" t="n">
+      <c r="F8" s="4" t="n">
         <v>0.1255</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>0.133</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="18" t="n">
+      <c r="B9" s="4" t="n">
         <v>0.134</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>0.06</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="4" t="n">
+        <v>0.1096</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>0.1481</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="18" t="n">
-        <v>0.1481</v>
-      </c>
-      <c r="C10" s="0" t="n">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="C11" s="1" t="n">
         <v>0.07</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="18" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="20" t="n">
+      <c r="F11" s="4" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.089</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="12" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
         <v>0.1301</v>
       </c>
-      <c r="C12" s="21" t="n">
+      <c r="C12" s="2" t="n">
         <f aca="false">AVERAGE(C2:C11)</f>
         <v>0.0582</v>
       </c>
-      <c r="F12" s="20" t="n">
+      <c r="F12" s="12" t="n">
         <f aca="false">AVERAGE(F2:F11)</f>
-        <v>0.117028571428571</v>
-      </c>
-      <c r="G12" s="21" t="n">
+        <v>0.118477777777778</v>
+      </c>
+      <c r="G12" s="2" t="n">
         <f aca="false">AVERAGE(G2:G11)</f>
-        <v>0.110785714285714</v>
-      </c>
-      <c r="XFC12" s="0"/>
-      <c r="XFD12" s="0"/>
+        <v>0.107166666666667</v>
+      </c>
+      <c r="XFC12" s="1"/>
+      <c r="XFD12" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="E15" s="0" t="s">
+      <c r="B15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="E16" s="0" t="s">
+      <c r="B16" s="4"/>
+      <c r="E16" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="E17" s="0" t="s">
+      <c r="B17" s="4"/>
+      <c r="E17" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="E18" s="0" t="s">
+      <c r="B18" s="4"/>
+      <c r="E18" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="E19" s="0" t="s">
+      <c r="B19" s="4"/>
+      <c r="E19" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="E20" s="0" t="s">
+      <c r="B20" s="4"/>
+      <c r="E20" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="E21" s="0" t="s">
+      <c r="B21" s="4"/>
+      <c r="E21" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="E22" s="0" t="s">
+      <c r="B22" s="4"/>
+      <c r="E22" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="E23" s="0" t="s">
+      <c r="B23" s="4"/>
+      <c r="E23" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="E24" s="0" t="s">
+      <c r="B24" s="4"/>
+      <c r="E24" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20" t="e">
+      <c r="A25" s="2"/>
+      <c r="B25" s="12" t="e">
         <f aca="false">AVERAGE(B15:B24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C25" s="21" t="e">
+      <c r="C25" s="2" t="e">
         <f aca="false">AVERAGE(C15:C24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20" t="e">
+      <c r="E25" s="2"/>
+      <c r="F25" s="12" t="e">
         <f aca="false">AVERAGE(F15:F24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="21" t="e">
+      <c r="G25" s="2" t="e">
         <f aca="false">AVERAGE(G15:G24)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="E28" s="0" t="s">
+      <c r="B28" s="4"/>
+      <c r="E28" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="E29" s="0" t="s">
+      <c r="B29" s="4"/>
+      <c r="E29" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F29" s="18"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="E30" s="0" t="s">
+      <c r="B30" s="4"/>
+      <c r="E30" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F30" s="18"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="E31" s="0" t="s">
+      <c r="B31" s="4"/>
+      <c r="E31" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F31" s="18"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="E32" s="0" t="s">
+      <c r="B32" s="4"/>
+      <c r="E32" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F32" s="18"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="E33" s="0" t="s">
+      <c r="B33" s="4"/>
+      <c r="E33" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F33" s="18"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="E34" s="0" t="s">
+      <c r="B34" s="4"/>
+      <c r="E34" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="E35" s="0" t="s">
+      <c r="B35" s="4"/>
+      <c r="E35" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F35" s="18"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="E36" s="0" t="s">
+      <c r="B36" s="4"/>
+      <c r="E36" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F36" s="18"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="E37" s="0" t="s">
+      <c r="B37" s="4"/>
+      <c r="E37" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F37" s="18"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20" t="e">
+      <c r="A38" s="2"/>
+      <c r="B38" s="12" t="e">
         <f aca="false">AVERAGE(B28:B37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C38" s="21" t="e">
+      <c r="C38" s="2" t="e">
         <f aca="false">AVERAGE(C28:C37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="20" t="e">
+      <c r="E38" s="2"/>
+      <c r="F38" s="12" t="e">
         <f aca="false">AVERAGE(F28:F37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="21" t="e">
+      <c r="G38" s="2" t="e">
         <f aca="false">AVERAGE(G28:G37)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="E41" s="0" t="s">
+      <c r="B41" s="4"/>
+      <c r="E41" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F41" s="18"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="E42" s="0" t="s">
+      <c r="B42" s="4"/>
+      <c r="E42" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F42" s="18"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="E43" s="0" t="s">
+      <c r="B43" s="4"/>
+      <c r="E43" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F43" s="18"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="E44" s="0" t="s">
+      <c r="B44" s="4"/>
+      <c r="E44" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F44" s="18"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="E45" s="0" t="s">
+      <c r="B45" s="4"/>
+      <c r="E45" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F45" s="18"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="E46" s="0" t="s">
+      <c r="B46" s="4"/>
+      <c r="E46" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F46" s="18"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="E47" s="0" t="s">
+      <c r="B47" s="4"/>
+      <c r="E47" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F47" s="18"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="E48" s="0" t="s">
+      <c r="B48" s="4"/>
+      <c r="E48" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F48" s="18"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="E49" s="0" t="s">
+      <c r="B49" s="4"/>
+      <c r="E49" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F49" s="18"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="E50" s="0" t="s">
+      <c r="B50" s="4"/>
+      <c r="E50" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F50" s="18"/>
+      <c r="F50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20" t="e">
+      <c r="A51" s="2"/>
+      <c r="B51" s="12" t="e">
         <f aca="false">AVERAGE(B41:B50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C51" s="21" t="e">
+      <c r="C51" s="2" t="e">
         <f aca="false">AVERAGE(C41:C50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E51" s="19"/>
-      <c r="F51" s="20" t="e">
+      <c r="E51" s="2"/>
+      <c r="F51" s="12" t="e">
         <f aca="false">AVERAGE(F41:F50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G51" s="21" t="e">
+      <c r="G51" s="2" t="e">
         <f aca="false">AVERAGE(G41:G50)</f>
         <v>#DIV/0!</v>
       </c>

--- a/PAPER_METEO/results.xlsx
+++ b/PAPER_METEO/results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="219">
   <si>
     <t xml:space="preserve">YEAR</t>
   </si>
@@ -4167,8 +4167,8 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4419,11 +4419,14 @@
       <c r="D15" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>0.826</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>168</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.996</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4436,11 +4439,14 @@
       <c r="D16" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>0.383</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>171</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.486</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4453,11 +4459,14 @@
       <c r="D17" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>79</v>
+      <c r="E17" s="1" t="n">
+        <v>0.261</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>174</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.204</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4470,106 +4479,148 @@
       <c r="D18" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="E18" s="0" t="n">
+        <v>0.368</v>
+      </c>
       <c r="G18" s="1" t="s">
         <v>177</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.175</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="E19" s="0" t="n">
+        <v>0.184</v>
+      </c>
       <c r="G19" s="1" t="s">
         <v>180</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.408</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>0.958</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="E20" s="0" t="n">
+        <v>0.406</v>
+      </c>
       <c r="G20" s="1" t="s">
         <v>183</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.3297</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>0.0347</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="E21" s="0" t="n">
+        <v>0.735</v>
+      </c>
       <c r="G21" s="1" t="s">
         <v>186</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.539</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="E22" s="0" t="n">
+        <v>0.595</v>
+      </c>
       <c r="G22" s="1" t="s">
         <v>189</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.545</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="E23" s="0" t="n">
+        <v>0.486</v>
+      </c>
       <c r="G23" s="1" t="s">
         <v>192</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.352</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>79</v>
+      <c r="B24" s="1" t="n">
+        <v>0.0346</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="E24" s="0" t="n">
+        <v>0.415</v>
+      </c>
       <c r="G24" s="1" t="s">
         <v>195</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.83</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="10" t="n">
         <f aca="false">AVERAGE(B15:B24)</f>
-        <v>0.121766666666667</v>
+        <v>0.11305</v>
       </c>
       <c r="E25" s="10" t="n">
         <f aca="false">AVERAGE(E15:E24)</f>
-        <v>0.6045</v>
-      </c>
-      <c r="H25" s="10" t="e">
+        <v>0.4659</v>
+      </c>
+      <c r="H25" s="10" t="n">
         <f aca="false">AVERAGE(H15:H24)</f>
-        <v>#DIV/0!</v>
+        <v>0.48647</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4584,30 +4635,51 @@
       <c r="A27" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="B27" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="D27" s="1" t="s">
         <v>197</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="D28" s="1" t="s">
         <v>199</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="B29" s="0" t="n">
+        <v>0.0832</v>
+      </c>
       <c r="D29" s="1" t="s">
         <v>201</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="D30" s="1" t="s">
         <v>203</v>
       </c>
@@ -4616,6 +4688,9 @@
       <c r="A31" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>205</v>
       </c>
@@ -4624,6 +4699,9 @@
       <c r="A32" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="D32" s="1" t="s">
         <v>207</v>
       </c>
@@ -4632,6 +4710,9 @@
       <c r="A33" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="D33" s="1" t="s">
         <v>209</v>
       </c>
@@ -4640,6 +4721,9 @@
       <c r="A34" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="B34" s="0" t="n">
+        <v>0.0416</v>
+      </c>
       <c r="D34" s="1" t="s">
         <v>211</v>
       </c>
@@ -4648,6 +4732,9 @@
       <c r="A35" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="B35" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="D35" s="1" t="s">
         <v>213</v>
       </c>
@@ -4656,14 +4743,17 @@
       <c r="A36" s="1" t="s">
         <v>214</v>
       </c>
+      <c r="B36" s="0" t="s">
+        <v>79</v>
+      </c>
       <c r="D36" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="10" t="e">
+      <c r="B37" s="10" t="n">
         <f aca="false">AVERAGE(B27:B36)</f>
-        <v>#DIV/0!</v>
+        <v>0.0138666666666667</v>
       </c>
       <c r="E37" s="10" t="e">
         <f aca="false">AVERAGE(E27:E36)</f>
@@ -4688,8 +4778,8 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4708,7 +4798,7 @@
         <v>217</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>10.81</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4731,7 +4821,7 @@
         <v>0.211</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>10.67</v>
+        <v>13.78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4754,7 +4844,7 @@
         <v>0.2897</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>10.67</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4777,7 +4867,7 @@
         <v>0.274</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>10.67</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4800,7 +4890,7 @@
         <v>0.343</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>10.81</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4823,7 +4913,7 @@
         <v>0.212</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>10.81</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4846,7 +4936,7 @@
         <v>0.209</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>10.96</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4865,11 +4955,11 @@
       <c r="G8" s="4" t="n">
         <v>0.1187</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>0.191</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>10.81</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4888,11 +4978,11 @@
       <c r="G9" s="4" t="n">
         <v>0.108</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>0.107</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>10.96</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4908,14 +4998,14 @@
       <c r="F10" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>79</v>
+      <c r="G10" s="4" t="n">
+        <v>0.1209</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0.202</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>10.81</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4931,15 +5021,15 @@
       <c r="F11" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>79</v>
+      <c r="G11" s="4" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0.17</v>
       </c>
       <c r="I11" s="1" t="n">
         <f aca="false">STDEV(I1:I10)</f>
-        <v>0.106645831298431</v>
+        <v>0.170362358909864</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4953,11 +5043,11 @@
       </c>
       <c r="G12" s="12" t="n">
         <f aca="false">AVERAGE(G2:G11)</f>
-        <v>0.1118</v>
+        <v>0.11482</v>
       </c>
       <c r="H12" s="2" t="n">
         <f aca="false">AVERAGE(H2:H11)</f>
-        <v>0.2295875</v>
+        <v>0.22087</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4971,85 +5061,190 @@
         <v>217</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>11.85</v>
+        <v>13.82</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="4" t="n">
+        <v>0.1272</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0.307</v>
+      </c>
       <c r="D15" s="1" t="n">
-        <v>11.56</v>
+        <v>13.7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="4" t="n">
+        <v>0.1345</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0.204</v>
+      </c>
       <c r="D16" s="1" t="n">
-        <v>11.7</v>
+        <v>13.59</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="n">
+        <v>11.85</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="4" t="n">
+        <v>0.1315</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0.204</v>
+      </c>
       <c r="D17" s="1" t="n">
-        <v>11.26</v>
+        <v>13.7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="n">
+        <v>11.38</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="4" t="n">
+        <v>0.1135</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0.181</v>
+      </c>
       <c r="D18" s="1" t="n">
-        <v>12</v>
+        <v>13.7</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="n">
+        <v>11.61</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="4" t="n">
+        <v>0.1159</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0.261</v>
+      </c>
       <c r="D19" s="1" t="n">
-        <v>11.85</v>
+        <v>13.7</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="n">
+        <v>11.73</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="4" t="n">
+        <v>0.1366</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0.0967</v>
+      </c>
       <c r="D20" s="1" t="n">
-        <v>11.85</v>
+        <v>13.59</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="n">
+        <v>11.27</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>79</v>
+      </c>
       <c r="D21" s="1" t="n">
-        <v>11.7</v>
+        <v>13.47</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="I21" s="1" t="n">
+        <v>11.27</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>79</v>
+      </c>
       <c r="D22" s="1" t="n">
-        <v>11.85</v>
+        <v>13.59</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="I22" s="1" t="n">
+        <v>11.73</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5058,7 +5253,14 @@
       </c>
       <c r="B23" s="4"/>
       <c r="D23" s="1" t="n">
-        <v>11.85</v>
+        <v>13.7</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="I23" s="1" t="n">
+        <v>12.08</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5068,20 +5270,38 @@
       <c r="B24" s="4"/>
       <c r="D24" s="1" t="n">
         <f aca="false">STDEV(D14:D23)</f>
-        <v>0.209127818437539</v>
+        <v>0.0967470929795824</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="I24" s="1" t="n">
+        <f aca="false">STDEV(I14:I23)</f>
+        <v>0.26084478143141</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
-      <c r="B25" s="12" t="e">
+      <c r="B25" s="12" t="n">
         <f aca="false">AVERAGE(B15:B24)</f>
+        <v>0.126533333333333</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <f aca="false">AVERAGE(C15:C24)</f>
+        <v>0.20895</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="12" t="e">
+        <f aca="false">AVERAGE(G15:G24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C25" s="2" t="e">
-        <f aca="false">AVERAGE(C15:C24)</f>
+      <c r="H25" s="2" t="e">
+        <f aca="false">AVERAGE(H15:H24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5101,8 +5321,8 @@
   </sheetPr>
   <dimension ref="A1:XFD51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5294,11 +5514,11 @@
       <c r="E10" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>79</v>
+      <c r="F10" s="4" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0.0937</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5317,7 +5537,7 @@
       <c r="F11" s="4" t="n">
         <v>0.1375</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>0.089</v>
       </c>
     </row>
@@ -5332,11 +5552,11 @@
       </c>
       <c r="F12" s="12" t="n">
         <f aca="false">AVERAGE(F2:F11)</f>
-        <v>0.118477777777778</v>
+        <v>0.11893</v>
       </c>
       <c r="G12" s="2" t="n">
         <f aca="false">AVERAGE(G2:G11)</f>
-        <v>0.107166666666667</v>
+        <v>0.10582</v>
       </c>
       <c r="XFC12" s="1"/>
       <c r="XFD12" s="1"/>
@@ -5359,32 +5579,52 @@
       <c r="A15" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>79</v>
+      <c r="B15" s="4" t="n">
+        <v>0.1308</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0.106</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="n">
+        <v>0.1387</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.106</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4" t="n">
+        <v>0.1346</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.0348</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>172</v>
       </c>
@@ -5394,7 +5634,12 @@
       <c r="A18" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4" t="n">
+        <v>0.1171</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.0465</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>175</v>
       </c>
@@ -5404,7 +5649,12 @@
       <c r="A19" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="4" t="n">
+        <v>0.1214</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.107</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>178</v>
       </c>
@@ -5414,7 +5664,12 @@
       <c r="A20" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="4" t="n">
+        <v>0.1405</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>181</v>
       </c>
@@ -5424,7 +5679,12 @@
       <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="4" t="n">
+        <v>0.1052</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.057</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>184</v>
       </c>
@@ -5434,7 +5694,12 @@
       <c r="A22" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="4" t="n">
+        <v>0.1452</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.05</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>187</v>
       </c>
@@ -5444,7 +5709,12 @@
       <c r="A23" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="4" t="n">
+        <v>0.1312</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>190</v>
       </c>
@@ -5454,7 +5724,12 @@
       <c r="A24" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>79</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>193</v>
       </c>
@@ -5462,13 +5737,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
-      <c r="B25" s="12" t="e">
+      <c r="B25" s="12" t="n">
         <f aca="false">AVERAGE(B15:B24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C25" s="2" t="e">
+        <v>0.129411111111111</v>
+      </c>
+      <c r="C25" s="2" t="n">
         <f aca="false">AVERAGE(C15:C24)</f>
-        <v>#DIV/0!</v>
+        <v>0.0563666666666667</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="12" t="e">

--- a/PAPER_METEO/results.xlsx
+++ b/PAPER_METEO/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" state="visible" r:id="rId3"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="219">
   <si>
     <t xml:space="preserve">YEAR</t>
   </si>
@@ -3187,15 +3187,38 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="51" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="e">
         <f aca="false">AVERAGE(B41:B50)</f>
@@ -3332,15 +3355,38 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="63" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="e">
         <f aca="false">AVERAGE(B53:B62)</f>
@@ -4027,15 +4073,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="51" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="e">
         <f aca="false">AVERAGE(B41:B50)</f>
@@ -4128,15 +4177,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="63" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="e">
         <f aca="false">AVERAGE(B53:B62)</f>
@@ -4167,8 +4219,8 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4425,7 +4477,7 @@
       <c r="G15" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>0.996</v>
       </c>
     </row>
@@ -4445,7 +4497,7 @@
       <c r="G16" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>0.486</v>
       </c>
     </row>
@@ -4465,7 +4517,7 @@
       <c r="G17" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>0.204</v>
       </c>
     </row>
@@ -4479,13 +4531,13 @@
       <c r="D18" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>0.368</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>0.175</v>
       </c>
     </row>
@@ -4499,13 +4551,13 @@
       <c r="D19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>0.184</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>0.408</v>
       </c>
     </row>
@@ -4519,13 +4571,13 @@
       <c r="D20" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>0.406</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>0.3297</v>
       </c>
     </row>
@@ -4539,13 +4591,13 @@
       <c r="D21" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>0.735</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>0.539</v>
       </c>
     </row>
@@ -4559,13 +4611,13 @@
       <c r="D22" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>0.595</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="1" t="n">
         <v>0.545</v>
       </c>
     </row>
@@ -4579,13 +4631,13 @@
       <c r="D23" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>0.486</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="1" t="n">
         <v>0.352</v>
       </c>
     </row>
@@ -4599,13 +4651,13 @@
       <c r="D24" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>0.415</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="1" t="n">
         <v>0.83</v>
       </c>
     </row>
@@ -4635,129 +4687,150 @@
       <c r="A27" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>79</v>
+      <c r="E27" s="1" t="n">
+        <v>0.359</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>79</v>
+      <c r="E28" s="1" t="n">
+        <v>0.558</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>0.0832</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>79</v>
+      <c r="E29" s="1" t="n">
+        <v>0.347</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>203</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0.323</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>205</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0.627</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>207</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.659</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>209</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0.634</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>0.0416</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>211</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0.388</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>213</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0.442</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>79</v>
+      <c r="B36" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>215</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0.469</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="10" t="n">
         <f aca="false">AVERAGE(B27:B36)</f>
-        <v>0.0138666666666667</v>
-      </c>
-      <c r="E37" s="10" t="e">
+        <v>0.01248</v>
+      </c>
+      <c r="E37" s="10" t="n">
         <f aca="false">AVERAGE(E27:E36)</f>
-        <v>#DIV/0!</v>
+        <v>0.4806</v>
       </c>
     </row>
   </sheetData>
@@ -4776,10 +4849,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5061,7 +5134,7 @@
         <v>217</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>13.82</v>
+        <v>12.2</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>216</v>
@@ -5070,7 +5143,7 @@
         <v>217</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>11.5</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5084,15 +5157,19 @@
         <v>0.307</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>13.7</v>
+        <v>12.31</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="4" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>0.054</v>
+      </c>
       <c r="I15" s="1" t="n">
-        <v>11.5</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5106,15 +5183,19 @@
         <v>0.204</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>13.59</v>
+        <v>12.2</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="I16" s="1" t="n">
-        <v>11.85</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5128,15 +5209,19 @@
         <v>0.204</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>13.7</v>
+        <v>12.2</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="4" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="I17" s="1" t="n">
-        <v>11.38</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5150,15 +5235,19 @@
         <v>0.181</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>13.7</v>
+        <v>11.96</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="4" t="n">
+        <v>0.1388</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>0.106</v>
+      </c>
       <c r="I18" s="1" t="n">
-        <v>11.61</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5172,15 +5261,19 @@
         <v>0.261</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>13.7</v>
+        <v>12.08</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="4" t="n">
+        <v>0.1233</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0.065</v>
+      </c>
       <c r="I19" s="1" t="n">
-        <v>11.73</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5194,114 +5287,684 @@
         <v>0.0967</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>13.59</v>
+        <v>12.08</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="4" t="n">
+        <v>0.1271</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>0.0717</v>
+      </c>
       <c r="I20" s="1" t="n">
-        <v>11.27</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>79</v>
+      <c r="B21" s="4" t="n">
+        <v>0.1013</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0.299</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>13.47</v>
+        <v>12.2</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4" t="n">
+        <v>0.1404</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.076</v>
+      </c>
       <c r="I21" s="1" t="n">
-        <v>11.27</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>79</v>
+      <c r="B22" s="4" t="n">
+        <v>0.1431</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0.12</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>13.59</v>
+        <v>11.85</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I22" s="1" t="n">
-        <v>11.73</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="4" t="n">
+        <v>0.1281</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.206</v>
+      </c>
       <c r="D23" s="1" t="n">
-        <v>13.7</v>
+        <v>11.85</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4" t="n">
+        <v>0.1316</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.0347</v>
+      </c>
       <c r="I23" s="1" t="n">
-        <v>12.08</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4" t="n">
+        <v>0.1208</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.16</v>
+      </c>
       <c r="D24" s="1" t="n">
         <f aca="false">STDEV(D14:D23)</f>
-        <v>0.0967470929795824</v>
+        <v>0.159516630968547</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="n">
+        <v>0.1204</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.0568</v>
+      </c>
       <c r="I24" s="1" t="n">
         <f aca="false">STDEV(I14:I23)</f>
-        <v>0.26084478143141</v>
+        <v>0.0717170365626842</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
       <c r="B25" s="12" t="n">
         <f aca="false">AVERAGE(B15:B24)</f>
-        <v>0.126533333333333</v>
+        <v>0.12525</v>
       </c>
       <c r="C25" s="2" t="n">
         <f aca="false">AVERAGE(C15:C24)</f>
-        <v>0.20895</v>
+        <v>0.20387</v>
       </c>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="12" t="e">
+      <c r="G25" s="12" t="n">
         <f aca="false">AVERAGE(G15:G24)</f>
+        <v>0.12646</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <f aca="false">AVERAGE(H15:H24)</f>
+        <v>0.04642</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>8.04</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="4" t="n">
+        <v>0.0976</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>0.1089</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="4" t="n">
+        <v>0.1045</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>0.0882</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="4" t="n">
+        <v>0.0938</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="4" t="n">
+        <v>0.0886</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>8.46</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="4" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>0.0875</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="4" t="n">
+        <v>0.0902</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>0.0793</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>8.46</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" s="4" t="n">
+        <v>0.1051</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" s="4" t="n">
+        <v>0.0958</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="4" t="n">
+        <v>0.0997</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.2098</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v>0.0832</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>8.04</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="4" t="n">
+        <v>0.1149</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G35" s="4" t="n">
+        <v>0.0871</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="4" t="n">
+        <v>0.0849</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G36" s="4" t="n">
+        <v>0.0939</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="4" t="n">
+        <v>0.1096</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <f aca="false">STDEV(D27:D36)</f>
+        <v>0.118321595661993</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G37" s="4" t="n">
+        <v>0.0813</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <f aca="false">STDEV(I27:I36)</f>
+        <v>0.292538696395689</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2"/>
+      <c r="B38" s="12" t="n">
+        <f aca="false">AVERAGE(B28:B37)</f>
+        <v>0.10023</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <f aca="false">AVERAGE(C28:C37)</f>
+        <v>0.20128</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="12" t="n">
+        <f aca="false">AVERAGE(G28:G37)</f>
+        <v>0.08938</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <f aca="false">AVERAGE(H28:H37)</f>
+        <v>0.2871</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" s="4" t="n">
+        <v>0.1057</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>0.0548</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="D47" s="1" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="I47" s="1" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="D48" s="1" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="I48" s="1" t="n">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="D49" s="1" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="I49" s="1" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="D50" s="1" t="n">
+        <f aca="false">STDEV(D40:D49)</f>
+        <v>0.0548128127762522</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="I50" s="1" t="n">
+        <f aca="false">STDEV(I40:I49)</f>
+        <v>0.303783548673137</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2"/>
+      <c r="B51" s="12" t="n">
+        <f aca="false">AVERAGE(B41:B50)</f>
+        <v>0.1057</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <f aca="false">AVERAGE(C41:C50)</f>
+        <v>0.0548</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="12" t="e">
+        <f aca="false">AVERAGE(G41:G50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="2" t="e">
-        <f aca="false">AVERAGE(H15:H24)</f>
+      <c r="H51" s="2" t="e">
+        <f aca="false">AVERAGE(H41:H50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I51" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5321,8 +5984,8 @@
   </sheetPr>
   <dimension ref="A1:XFD51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5588,11 +6251,11 @@
       <c r="E15" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>79</v>
+      <c r="F15" s="4" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5602,17 +6265,17 @@
       <c r="B16" s="4" t="n">
         <v>0.1387</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>0.106</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>79</v>
+      <c r="F16" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5622,13 +6285,18 @@
       <c r="B17" s="4" t="n">
         <v>0.1346</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>0.0348</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4" t="n">
+        <v>0.1223</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -5637,13 +6305,18 @@
       <c r="B18" s="4" t="n">
         <v>0.1171</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>0.0465</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.0461</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -5652,13 +6325,18 @@
       <c r="B19" s="4" t="n">
         <v>0.1214</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>0.107</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4" t="n">
+        <v>0.1234</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -5667,13 +6345,18 @@
       <c r="B20" s="4" t="n">
         <v>0.1405</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4" t="n">
+        <v>0.1269</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -5682,13 +6365,18 @@
       <c r="B21" s="4" t="n">
         <v>0.1052</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>0.057</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="4" t="n">
+        <v>0.1398</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.0461</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
@@ -5697,13 +6385,18 @@
       <c r="B22" s="4" t="n">
         <v>0.1452</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>0.05</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
@@ -5712,47 +6405,57 @@
       <c r="B23" s="4" t="n">
         <v>0.1312</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="4" t="n">
+        <v>0.1315</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>79</v>
+      <c r="B24" s="4" t="n">
+        <v>0.1238</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0.0569</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0.052</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
       <c r="B25" s="12" t="n">
         <f aca="false">AVERAGE(B15:B24)</f>
-        <v>0.129411111111111</v>
+        <v>0.12885</v>
       </c>
       <c r="C25" s="2" t="n">
         <f aca="false">AVERAGE(C15:C24)</f>
-        <v>0.0563666666666667</v>
+        <v>0.05642</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="12" t="e">
+      <c r="F25" s="12" t="n">
         <f aca="false">AVERAGE(F15:F24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="2" t="e">
+        <v>0.12624</v>
+      </c>
+      <c r="G25" s="2" t="n">
         <f aca="false">AVERAGE(G15:G24)</f>
-        <v>#DIV/0!</v>
+        <v>0.01442</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5773,120 +6476,220 @@
       <c r="A28" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="4" t="n">
+        <v>0.1006</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.148</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="4" t="n">
+        <v>0.1136</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0.0416</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="4" t="n">
+        <v>0.1123</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.235</v>
+      </c>
       <c r="E29" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="4" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0.108</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="4" t="n">
+        <v>0.0962</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.0452</v>
+      </c>
       <c r="E30" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="4" t="n">
+        <v>0.0943</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="4" t="n">
+        <v>0.1051</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.0904</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="4" t="n">
+        <v>0.0924</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0.0679</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="4" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.0738</v>
+      </c>
       <c r="E32" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="4" t="n">
+        <v>0.0832</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="4" t="n">
+        <v>0.1069</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="E33" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="4" t="n">
+        <v>0.1015</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0.121</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="4" t="n">
+        <v>0.1054</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="E34" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="4" t="n">
+        <v>0.0874</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="4" t="n">
+        <v>0.1188</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.0811</v>
+      </c>
       <c r="E35" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="4" t="n">
+        <v>0.0902</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B36" s="4"/>
+      <c r="B36" s="4" t="n">
+        <v>0.0883</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.0738</v>
+      </c>
       <c r="E36" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="4" t="n">
+        <v>0.1102</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.0602</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
-      <c r="B38" s="12" t="e">
+      <c r="B38" s="12" t="n">
         <f aca="false">AVERAGE(B28:B37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C38" s="2" t="e">
+        <v>0.10378</v>
+      </c>
+      <c r="C38" s="2" t="n">
         <f aca="false">AVERAGE(C28:C37)</f>
-        <v>#DIV/0!</v>
+        <v>0.08075</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="12" t="e">
+      <c r="F38" s="12" t="n">
         <f aca="false">AVERAGE(F28:F37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" s="2" t="e">
+        <v>0.094325</v>
+      </c>
+      <c r="G38" s="2" t="n">
         <f aca="false">AVERAGE(G28:G37)</f>
-        <v>#DIV/0!</v>
+        <v>0.0423125</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5907,7 +6710,12 @@
       <c r="A41" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>79</v>
+      </c>
       <c r="E41" s="1" t="s">
         <v>197</v>
       </c>
@@ -5917,7 +6725,12 @@
       <c r="A42" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>79</v>
+      </c>
       <c r="E42" s="1" t="s">
         <v>199</v>
       </c>

--- a/PAPER_METEO/results.xlsx
+++ b/PAPER_METEO/results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="219">
   <si>
     <t xml:space="preserve">YEAR</t>
   </si>
@@ -4735,7 +4735,7 @@
       <c r="D30" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>0.323</v>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       <c r="D31" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>0.627</v>
       </c>
     </row>
@@ -4763,7 +4763,7 @@
       <c r="D32" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>0.659</v>
       </c>
     </row>
@@ -4777,7 +4777,7 @@
       <c r="D33" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>0.634</v>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       <c r="D34" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>0.388</v>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       <c r="D35" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>0.442</v>
       </c>
     </row>
@@ -4819,7 +4819,7 @@
       <c r="D36" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <v>0.469</v>
       </c>
     </row>
@@ -4852,7 +4852,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
+      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5321,7 +5321,7 @@
       <c r="G21" s="4" t="n">
         <v>0.1404</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>0.076</v>
       </c>
       <c r="I21" s="1" t="n">
@@ -5347,7 +5347,7 @@
       <c r="G22" s="4" t="n">
         <v>0.128</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="n">
@@ -5361,7 +5361,7 @@
       <c r="B23" s="4" t="n">
         <v>0.1281</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>0.206</v>
       </c>
       <c r="D23" s="1" t="n">
@@ -5373,7 +5373,7 @@
       <c r="G23" s="4" t="n">
         <v>0.1316</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="1" t="n">
         <v>0.0347</v>
       </c>
       <c r="I23" s="1" t="n">
@@ -5387,7 +5387,7 @@
       <c r="B24" s="4" t="n">
         <v>0.1208</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>0.16</v>
       </c>
       <c r="D24" s="1" t="n">
@@ -5400,7 +5400,7 @@
       <c r="G24" s="4" t="n">
         <v>0.1204</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="1" t="n">
         <v>0.0568</v>
       </c>
       <c r="I24" s="1" t="n">
@@ -5613,7 +5613,7 @@
       <c r="B34" s="4" t="n">
         <v>0.0997</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>0.2098</v>
       </c>
       <c r="D34" s="1" t="n">
@@ -5625,7 +5625,7 @@
       <c r="G34" s="4" t="n">
         <v>0.0832</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34" s="1" t="n">
         <v>0.219</v>
       </c>
       <c r="I34" s="1" t="n">
@@ -5639,7 +5639,7 @@
       <c r="B35" s="4" t="n">
         <v>0.1149</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>0.161</v>
       </c>
       <c r="D35" s="1" t="n">
@@ -5651,7 +5651,7 @@
       <c r="G35" s="4" t="n">
         <v>0.0871</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35" s="1" t="n">
         <v>0.252</v>
       </c>
       <c r="I35" s="1" t="n">
@@ -5665,7 +5665,7 @@
       <c r="B36" s="4" t="n">
         <v>0.0849</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>0.143</v>
       </c>
       <c r="D36" s="1" t="n">
@@ -5677,7 +5677,7 @@
       <c r="G36" s="4" t="n">
         <v>0.0939</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36" s="1" t="n">
         <v>0.208</v>
       </c>
       <c r="I36" s="1" t="n">
@@ -5691,7 +5691,7 @@
       <c r="B37" s="4" t="n">
         <v>0.1096</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>0.118</v>
       </c>
       <c r="D37" s="1" t="n">
@@ -5704,7 +5704,7 @@
       <c r="G37" s="4" t="n">
         <v>0.0813</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H37" s="1" t="n">
         <v>0.293</v>
       </c>
       <c r="I37" s="1" t="n">
@@ -5780,11 +5780,11 @@
       <c r="A42" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>79</v>
+      <c r="B42" s="4" t="n">
+        <v>0.0915</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>0.05</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>10.54</v>
@@ -5802,11 +5802,11 @@
       <c r="A43" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>79</v>
+      <c r="B43" s="4" t="n">
+        <v>0.0999</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>10.54</v>
@@ -5824,11 +5824,11 @@
       <c r="A44" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>79</v>
+      <c r="B44" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>0.05</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>10.54</v>
@@ -5846,8 +5846,12 @@
       <c r="A45" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="1"/>
+      <c r="B45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D45" s="1" t="n">
         <v>10.67</v>
       </c>
@@ -5864,8 +5868,12 @@
       <c r="A46" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="1"/>
+      <c r="B46" s="4" t="n">
+        <v>0.0846</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="D46" s="1" t="n">
         <v>10.54</v>
       </c>
@@ -5882,7 +5890,12 @@
       <c r="A47" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>79</v>
+      </c>
       <c r="D47" s="1" t="n">
         <v>10.54</v>
       </c>
@@ -5898,7 +5911,12 @@
       <c r="A48" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>79</v>
+      </c>
       <c r="D48" s="1" t="n">
         <v>10.54</v>
       </c>
@@ -5914,7 +5932,12 @@
       <c r="A49" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>79</v>
+      </c>
       <c r="D49" s="1" t="n">
         <v>10.67</v>
       </c>
@@ -5930,7 +5953,12 @@
       <c r="A50" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>79</v>
+      </c>
       <c r="D50" s="1" t="n">
         <f aca="false">STDEV(D40:D49)</f>
         <v>0.0548128127762522</v>
@@ -5948,11 +5976,11 @@
       <c r="A51" s="2"/>
       <c r="B51" s="12" t="n">
         <f aca="false">AVERAGE(B41:B50)</f>
-        <v>0.1057</v>
+        <v>0.09634</v>
       </c>
       <c r="C51" s="2" t="n">
         <f aca="false">AVERAGE(C41:C50)</f>
-        <v>0.0548</v>
+        <v>0.03096</v>
       </c>
       <c r="D51" s="2"/>
       <c r="F51" s="2"/>
@@ -6294,7 +6322,7 @@
       <c r="F17" s="4" t="n">
         <v>0.1223</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6314,7 +6342,7 @@
       <c r="F18" s="4" t="n">
         <v>0.1375</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <v>0.0461</v>
       </c>
     </row>
@@ -6334,7 +6362,7 @@
       <c r="F19" s="4" t="n">
         <v>0.1234</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6354,7 +6382,7 @@
       <c r="F20" s="4" t="n">
         <v>0.1269</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6374,7 +6402,7 @@
       <c r="F21" s="4" t="n">
         <v>0.1398</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
         <v>0.0461</v>
       </c>
     </row>
@@ -6394,7 +6422,7 @@
       <c r="F22" s="4" t="n">
         <v>0.128</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6414,7 +6442,7 @@
       <c r="F23" s="4" t="n">
         <v>0.1315</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6434,7 +6462,7 @@
       <c r="F24" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="1" t="n">
         <v>0.052</v>
       </c>
     </row>
@@ -6479,7 +6507,7 @@
       <c r="B28" s="4" t="n">
         <v>0.1006</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>0.148</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -6488,7 +6516,7 @@
       <c r="F28" s="4" t="n">
         <v>0.1136</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="1" t="n">
         <v>0.0416</v>
       </c>
     </row>
@@ -6499,7 +6527,7 @@
       <c r="B29" s="4" t="n">
         <v>0.1123</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>0.235</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -6508,7 +6536,7 @@
       <c r="F29" s="4" t="n">
         <v>0.092</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="1" t="n">
         <v>0.108</v>
       </c>
     </row>
@@ -6519,7 +6547,7 @@
       <c r="B30" s="4" t="n">
         <v>0.0962</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>0.0452</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -6528,7 +6556,7 @@
       <c r="F30" s="4" t="n">
         <v>0.0943</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6539,7 +6567,7 @@
       <c r="B31" s="4" t="n">
         <v>0.1051</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>0.0904</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -6548,7 +6576,7 @@
       <c r="F31" s="4" t="n">
         <v>0.0924</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="1" t="n">
         <v>0.0679</v>
       </c>
     </row>
@@ -6559,7 +6587,7 @@
       <c r="B32" s="4" t="n">
         <v>0.094</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>0.0738</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -6568,7 +6596,7 @@
       <c r="F32" s="4" t="n">
         <v>0.0832</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6579,7 +6607,7 @@
       <c r="B33" s="4" t="n">
         <v>0.1069</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -6588,7 +6616,7 @@
       <c r="F33" s="4" t="n">
         <v>0.1015</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33" s="1" t="n">
         <v>0.121</v>
       </c>
     </row>
@@ -6599,7 +6627,7 @@
       <c r="B34" s="4" t="n">
         <v>0.1054</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -6608,7 +6636,7 @@
       <c r="F34" s="4" t="n">
         <v>0.0874</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6619,7 +6647,7 @@
       <c r="B35" s="4" t="n">
         <v>0.1188</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>0.0811</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -6628,7 +6656,7 @@
       <c r="F35" s="4" t="n">
         <v>0.0902</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6639,7 +6667,7 @@
       <c r="B36" s="4" t="n">
         <v>0.0883</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>0.0738</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -6648,7 +6676,7 @@
       <c r="F36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6659,7 +6687,7 @@
       <c r="B37" s="4" t="n">
         <v>0.1102</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>0.0602</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -6668,7 +6696,7 @@
       <c r="F37" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6713,7 +6741,7 @@
       <c r="B41" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -6728,7 +6756,7 @@
       <c r="B42" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E42" s="1" t="s">

--- a/PAPER_METEO/results.xlsx
+++ b/PAPER_METEO/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" state="visible" r:id="rId3"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="220">
   <si>
     <t xml:space="preserve">YEAR</t>
   </si>
@@ -684,6 +684,9 @@
   </si>
   <si>
     <t xml:space="preserve">dnn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrmr</t>
   </si>
 </sst>
 </file>
@@ -4851,8 +4854,8 @@
   </sheetPr>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H51" activeCellId="0" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5742,7 +5745,7 @@
         <v>217</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>10.54</v>
+        <v>9.71</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>216</v>
@@ -5751,7 +5754,7 @@
         <v>217</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>12</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5765,15 +5768,19 @@
         <v>0.0548</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>10.54</v>
+        <v>9.71</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="1"/>
+      <c r="G41" s="4" t="n">
+        <v>0.0937</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>0.177</v>
+      </c>
       <c r="I41" s="1" t="n">
-        <v>12</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5787,15 +5794,19 @@
         <v>0.05</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>10.54</v>
+        <v>9.85</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="1"/>
+      <c r="G42" s="4" t="n">
+        <v>0.1137</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>0.192</v>
+      </c>
       <c r="I42" s="1" t="n">
-        <v>11.3</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5809,15 +5820,19 @@
         <v>0</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>10.54</v>
+        <v>9.71</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="1"/>
+      <c r="G43" s="4" t="n">
+        <v>0.0963</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>0.275</v>
+      </c>
       <c r="I43" s="1" t="n">
-        <v>11.3</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5831,37 +5846,45 @@
         <v>0.05</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>10.54</v>
+        <v>9.71</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="1"/>
+      <c r="G44" s="4" t="n">
+        <v>0.1063</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>0.289</v>
+      </c>
       <c r="I44" s="1" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>79</v>
+      <c r="B45" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>0.0411</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>10.67</v>
+        <v>9.85</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="1"/>
+      <c r="G45" s="4" t="n">
+        <v>0.1134</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>0.275</v>
+      </c>
       <c r="I45" s="1" t="n">
-        <v>11.3</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5875,122 +5898,146 @@
         <v>0</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>10.54</v>
+        <v>9.71</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="1"/>
+      <c r="G46" s="4" t="n">
+        <v>0.1096</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>0.256</v>
+      </c>
       <c r="I46" s="1" t="n">
-        <v>11.3</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>79</v>
+      <c r="B47" s="4" t="n">
+        <v>0.1014</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>0.0443</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>10.54</v>
+        <v>9.71</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G47" s="4"/>
+      <c r="G47" s="4" t="n">
+        <v>0.1157</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>0.251</v>
+      </c>
       <c r="I47" s="1" t="n">
-        <v>11.3</v>
+        <v>9.87</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>79</v>
+      <c r="B48" s="4" t="n">
+        <v>0.0974</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>0.059</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>10.54</v>
+        <v>9.71</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G48" s="4"/>
+      <c r="G48" s="4" t="n">
+        <v>0.1264</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>0.26</v>
+      </c>
       <c r="I48" s="1" t="n">
-        <v>11.18</v>
+        <v>10.16</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>79</v>
+      <c r="B49" s="4" t="n">
+        <v>0.0874</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>10.67</v>
+        <v>9.71</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G49" s="4"/>
+      <c r="G49" s="4" t="n">
+        <v>0.1131</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>0.257</v>
+      </c>
       <c r="I49" s="1" t="n">
-        <v>11.3</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>79</v>
+      <c r="B50" s="4" t="n">
+        <v>0.0821</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>0.05</v>
       </c>
       <c r="D50" s="1" t="n">
         <f aca="false">STDEV(D40:D49)</f>
-        <v>0.0548128127762522</v>
+        <v>0.0590291829898093</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G50" s="4"/>
+      <c r="G50" s="4" t="n">
+        <v>0.1018</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>0.393</v>
+      </c>
       <c r="I50" s="1" t="n">
         <f aca="false">STDEV(I40:I49)</f>
-        <v>0.303783548673137</v>
+        <v>0.393334745760176</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
       <c r="B51" s="12" t="n">
         <f aca="false">AVERAGE(B41:B50)</f>
-        <v>0.09634</v>
+        <v>0.095</v>
       </c>
       <c r="C51" s="2" t="n">
         <f aca="false">AVERAGE(C41:C50)</f>
-        <v>0.03096</v>
+        <v>0.03492</v>
       </c>
       <c r="D51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="12" t="e">
+      <c r="G51" s="12" t="n">
         <f aca="false">AVERAGE(G41:G50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H51" s="2" t="e">
+        <v>0.109</v>
+      </c>
+      <c r="H51" s="2" t="n">
         <f aca="false">AVERAGE(H41:H50)</f>
-        <v>#DIV/0!</v>
+        <v>0.2625</v>
       </c>
       <c r="I51" s="2"/>
     </row>
@@ -6012,8 +6059,8 @@
   </sheetPr>
   <dimension ref="A1:XFD51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6031,6 +6078,9 @@
       <c r="G1" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -6051,6 +6101,9 @@
       <c r="G2" s="1" t="n">
         <v>0.222</v>
       </c>
+      <c r="H2" s="0" t="n">
+        <v>13.01</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -6071,6 +6124,9 @@
       <c r="G3" s="1" t="n">
         <v>0.173</v>
       </c>
+      <c r="H3" s="0" t="n">
+        <v>11.89</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -6091,6 +6147,9 @@
       <c r="G4" s="1" t="n">
         <v>0.0726</v>
       </c>
+      <c r="H4" s="0" t="n">
+        <v>12.89</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -6111,6 +6170,9 @@
       <c r="G5" s="1" t="n">
         <v>0.04</v>
       </c>
+      <c r="H5" s="0" t="n">
+        <v>12.62</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -6131,6 +6193,9 @@
       <c r="G6" s="1" t="n">
         <v>0.04</v>
       </c>
+      <c r="H6" s="0" t="n">
+        <v>10.38</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -6151,6 +6216,9 @@
       <c r="G7" s="1" t="n">
         <v>0.0949</v>
       </c>
+      <c r="H7" s="0" t="n">
+        <v>9.41</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -6171,6 +6239,9 @@
       <c r="G8" s="1" t="n">
         <v>0.133</v>
       </c>
+      <c r="H8" s="0" t="n">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -6190,6 +6261,9 @@
       </c>
       <c r="G9" s="1" t="n">
         <v>0.1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>10.62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6248,6 +6322,10 @@
       <c r="G12" s="2" t="n">
         <f aca="false">AVERAGE(G2:G11)</f>
         <v>0.10582</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <f aca="false">AVERAGE(H2:H11)</f>
+        <v>11.29</v>
       </c>
       <c r="XFC12" s="1"/>
       <c r="XFD12" s="1"/>
@@ -6673,11 +6751,11 @@
       <c r="E36" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>79</v>
+      <c r="F36" s="4" t="n">
+        <v>0.0976</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>0.0679</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6693,11 +6771,11 @@
       <c r="E37" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>79</v>
+      <c r="F37" s="4" t="n">
+        <v>0.0888</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6713,11 +6791,11 @@
       <c r="E38" s="2"/>
       <c r="F38" s="12" t="n">
         <f aca="false">AVERAGE(F28:F37)</f>
-        <v>0.094325</v>
+        <v>0.0941</v>
       </c>
       <c r="G38" s="2" t="n">
         <f aca="false">AVERAGE(G28:G37)</f>
-        <v>0.0423125</v>
+        <v>0.04064</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6738,130 +6816,220 @@
       <c r="A41" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>79</v>
+      <c r="B41" s="4" t="n">
+        <v>0.1054</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="4" t="n">
+        <v>0.1147</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>0.155</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>79</v>
+      <c r="B42" s="4" t="n">
+        <v>0.0915</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="4" t="n">
+        <v>0.0959</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0.0892</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B43" s="4"/>
+      <c r="B43" s="4" t="n">
+        <v>0.0999</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="E43" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F43" s="4"/>
+      <c r="F43" s="4" t="n">
+        <v>0.0963</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>0.0646</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B44" s="4"/>
+      <c r="B44" s="4" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="E44" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F44" s="4"/>
+      <c r="F44" s="4" t="n">
+        <v>0.1087</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B45" s="4"/>
+      <c r="B45" s="4" t="n">
+        <v>0.0999</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="E45" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F45" s="4"/>
+      <c r="F45" s="4" t="n">
+        <v>0.1128</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B46" s="4"/>
+      <c r="B46" s="4" t="n">
+        <v>0.0846</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="E46" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F46" s="4"/>
+      <c r="F46" s="4" t="n">
+        <v>0.1086</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B47" s="4"/>
+      <c r="B47" s="4" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="E47" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F47" s="4"/>
+      <c r="F47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B48" s="4"/>
+      <c r="B48" s="4" t="n">
+        <v>0.0971</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="E48" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F48" s="4"/>
+      <c r="F48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="4" t="n">
+        <v>0.0874</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="E49" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F49" s="4"/>
+      <c r="F49" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B50" s="4"/>
+      <c r="B50" s="4" t="n">
+        <v>0.0818</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="E50" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F50" s="4"/>
+      <c r="F50" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
-      <c r="B51" s="12" t="e">
+      <c r="B51" s="12" t="n">
         <f aca="false">AVERAGE(B41:B50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C51" s="2" t="e">
+        <v>0.095</v>
+      </c>
+      <c r="C51" s="2" t="n">
         <f aca="false">AVERAGE(C41:C50)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="12" t="e">
+      <c r="F51" s="12" t="n">
         <f aca="false">AVERAGE(F41:F50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G51" s="2" t="e">
+        <v>0.106166666666667</v>
+      </c>
+      <c r="G51" s="2" t="n">
         <f aca="false">AVERAGE(G41:G50)</f>
-        <v>#DIV/0!</v>
+        <v>0.0781333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/PAPER_METEO/results.xlsx
+++ b/PAPER_METEO/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" state="visible" r:id="rId3"/>
@@ -16,6 +16,9 @@
     <sheet name="nncStd" sheetId="6" state="visible" r:id="rId8"/>
     <sheet name="bayesnn" sheetId="7" state="visible" r:id="rId9"/>
     <sheet name="dnn" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="nc_expers_nnc" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="nc_expers_fc" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="time_results" sheetId="11" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="227">
   <si>
     <t xml:space="preserve">YEAR</t>
   </si>
@@ -687,6 +690,27 @@
   </si>
   <si>
     <t xml:space="preserve">mrmr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nc=100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nc=200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAYESNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIME</t>
   </si>
 </sst>
 </file>
@@ -697,7 +721,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -759,6 +783,21 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -802,7 +841,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -863,6 +902,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,7 +915,445 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>AVERAGE EXECUTION TIME</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time_results!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TIME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>time_results!$B$16:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BFGS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NNC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BAYESNN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DNN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FC2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time_results!$C$16:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>257.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>383.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="52004806"/>
+        <c:axId val="10222228"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="52004806"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>METHOD</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10222228"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="10222228"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>TIME</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52004806"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:uFillTx/>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>116280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2474640" y="777960"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1440,6 +1921,1296 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4"/>
+      <c r="B1" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>0.0785</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0.0822</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.0668</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.0785</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>0.1007</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.0901</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.0766</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.0668</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>0.0739</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0.0815</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.0738</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.0847</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>0.0825</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.0935</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.0701</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.0763</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.0882</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.0822</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.0824</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>0.0892</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.0981</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.0905</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.0881</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>0.0998</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0.0921</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.0847</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>0.1067</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0.0975</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0.0879</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.0868</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>0.0811</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>0.0875</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.0844</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.0876</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>0.0914</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0.0677</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>0.0994</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>0.0944</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="n">
+        <f aca="false">AVERAGE(B2:B11)</f>
+        <v>0.08738</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <f aca="false">AVERAGE(C2:C11)</f>
+        <v>0.08773</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="n">
+        <f aca="false">AVERAGE(F2:F11)</f>
+        <v>0.08238</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <f aca="false">AVERAGE(G2:G11)</f>
+        <v>0.08303</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4"/>
+      <c r="B14" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>0.0925</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>0.1003</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>0.1131</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>0.0965</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>0.1196</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>0.0818</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>0.0832</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>0.1232</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>0.0859</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>0.0812</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>0.1368</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0.0871</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>0.1234</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>0.1224</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>0.0825</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>0.1246</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>0.1258</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>0.0695</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>0.1427</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>0.1386</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>0.0889</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>0.0959</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>0.1284</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>0.1387</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>0.1078</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>0.1062</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>0.1321</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>0.1317</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>0.0897</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>0.0891</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>0.1211</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="n">
+        <f aca="false">AVERAGE(B15:B24)</f>
+        <v>0.08976</v>
+      </c>
+      <c r="C25" s="9" t="n">
+        <f aca="false">AVERAGE(C15:C24)</f>
+        <v>0.08915</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="n">
+        <f aca="false">AVERAGE(F15:F24)</f>
+        <v>0.12655</v>
+      </c>
+      <c r="G25" s="9" t="n">
+        <f aca="false">AVERAGE(G15:G24)</f>
+        <v>0.12707</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4"/>
+      <c r="B27" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="4" t="n">
+        <v>0.0636</v>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>0.0795</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="4" t="n">
+        <v>0.0698</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>0.071</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="4" t="n">
+        <v>0.0779</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>0.0788</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="4" t="n">
+        <v>0.0624</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>0.068</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="4" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>0.0774</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="4" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="G30" s="4" t="n">
+        <v>0.0731</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="4" t="n">
+        <v>0.0869</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>0.0748</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="4" t="n">
+        <v>0.0523</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>0.053</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="4" t="n">
+        <v>0.0747</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>0.0642</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="4" t="n">
+        <v>0.0587</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>0.0562</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="4" t="n">
+        <v>0.0849</v>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>0.0848</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="4" t="n">
+        <v>0.0746</v>
+      </c>
+      <c r="G33" s="4" t="n">
+        <v>0.0767</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="4" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="C34" s="4" t="n">
+        <v>0.0815</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="4" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v>0.0748</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="4" t="n">
+        <v>0.0867</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>0.0794</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="4" t="n">
+        <v>0.0555</v>
+      </c>
+      <c r="G35" s="4" t="n">
+        <v>0.0552</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="4" t="n">
+        <v>0.0717</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>0.0806</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="4" t="n">
+        <v>0.0666</v>
+      </c>
+      <c r="G36" s="4" t="n">
+        <v>0.0666</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="4" t="n">
+        <v>0.0861</v>
+      </c>
+      <c r="C37" s="4" t="n">
+        <v>0.0839</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="4" t="n">
+        <v>0.0707</v>
+      </c>
+      <c r="G37" s="4" t="n">
+        <v>0.0746</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9" t="n">
+        <f aca="false">AVERAGE(B28:B37)</f>
+        <v>0.07955</v>
+      </c>
+      <c r="C38" s="9" t="n">
+        <f aca="false">AVERAGE(C28:C37)</f>
+        <v>0.07849</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9" t="n">
+        <f aca="false">AVERAGE(F28:F37)</f>
+        <v>0.06546</v>
+      </c>
+      <c r="G38" s="9" t="n">
+        <f aca="false">AVERAGE(G28:G37)</f>
+        <v>0.06692</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4"/>
+      <c r="B40" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="4" t="n">
+        <v>0.1054</v>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>0.1054</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="4" t="n">
+        <v>0.0822</v>
+      </c>
+      <c r="G41" s="4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="4" t="n">
+        <v>0.0915</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>0.0915</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" s="4" t="n">
+        <v>0.1008</v>
+      </c>
+      <c r="G42" s="4" t="n">
+        <v>0.1016</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="4" t="n">
+        <v>0.0999</v>
+      </c>
+      <c r="C43" s="4" t="n">
+        <v>0.0999</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="4" t="n">
+        <v>0.0927</v>
+      </c>
+      <c r="G43" s="4" t="n">
+        <v>0.0889</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="4" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="C44" s="4" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="15" t="n">
+        <v>0.0927</v>
+      </c>
+      <c r="G44" s="4" t="n">
+        <v>0.1013</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="4" t="n">
+        <v>0.0999</v>
+      </c>
+      <c r="C45" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" s="4" t="n">
+        <v>0.1013</v>
+      </c>
+      <c r="G45" s="4" t="n">
+        <v>0.1042</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="4" t="n">
+        <v>0.0846</v>
+      </c>
+      <c r="C46" s="4" t="n">
+        <v>0.0846</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" s="4" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="G46" s="4" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="4" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="C47" s="4" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="G47" s="4" t="n">
+        <v>0.0996</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="4" t="n">
+        <v>0.0974</v>
+      </c>
+      <c r="C48" s="4" t="n">
+        <v>0.0971</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="4" t="n">
+        <v>0.1176</v>
+      </c>
+      <c r="G48" s="4" t="n">
+        <v>0.1274</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="4" t="n">
+        <v>0.0874</v>
+      </c>
+      <c r="C49" s="4" t="n">
+        <v>0.0874</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="4" t="n">
+        <v>0.0968</v>
+      </c>
+      <c r="G49" s="4" t="n">
+        <v>0.102</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="4" t="n">
+        <v>0.0818</v>
+      </c>
+      <c r="C50" s="4" t="n">
+        <v>0.0818</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="4" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="G50" s="4" t="n">
+        <v>0.087</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9" t="n">
+        <f aca="false">AVERAGE(B41:B50)</f>
+        <v>0.09503</v>
+      </c>
+      <c r="C51" s="9" t="n">
+        <f aca="false">AVERAGE(C41:C50)</f>
+        <v>0.09501</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="n">
+        <f aca="false">AVERAGE(F41:F50)</f>
+        <v>0.09651</v>
+      </c>
+      <c r="G51" s="9" t="n">
+        <f aca="false">AVERAGE(G41:G50)</f>
+        <v>0.099</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12Σελίδα &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>144.25</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>210.894</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>78.546</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>343.588</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>8.55</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>206.156</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>233.603</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>70.789</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>368.238</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>255.833</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>306.035</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>88.835</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>509.257</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>9.22</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>175.241</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>298.366</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>94.541</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>397.226</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>8.22</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>193.021</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>258.893</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>106.057</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>338.833</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>179.865</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>252.576</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>97.45</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>402.52</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>216.935</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>238.169</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>90.153</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>259.52</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>191.565</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>258.38</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>90.528</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>450.253</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="10" t="n">
+        <f aca="false">AVERAGE(B2:B9)</f>
+        <v>7.94125</v>
+      </c>
+      <c r="C11" s="10" t="n">
+        <f aca="false">AVERAGE(C2:C9)</f>
+        <v>7.58</v>
+      </c>
+      <c r="D11" s="10" t="n">
+        <f aca="false">AVERAGE(D2:D9)</f>
+        <v>195.35825</v>
+      </c>
+      <c r="E11" s="10" t="n">
+        <f aca="false">AVERAGE(E2:E9)</f>
+        <v>257.1145</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <f aca="false">AVERAGE(F2:F9)</f>
+        <v>89.612375</v>
+      </c>
+      <c r="G11" s="10" t="n">
+        <f aca="false">AVERAGE(G2:G9)</f>
+        <v>383.679375</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>90.53</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>195.36</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>257.11</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>383.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12Σελίδα &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -2250,7 +4021,7 @@
   <dimension ref="A1:Y63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6059,7 +7830,7 @@
   </sheetPr>
   <dimension ref="A1:XFD51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -6078,7 +7849,7 @@
       <c r="G1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>219</v>
       </c>
     </row>
@@ -6101,7 +7872,7 @@
       <c r="G2" s="1" t="n">
         <v>0.222</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>13.01</v>
       </c>
     </row>
@@ -6124,7 +7895,7 @@
       <c r="G3" s="1" t="n">
         <v>0.173</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>11.89</v>
       </c>
     </row>
@@ -6147,7 +7918,7 @@
       <c r="G4" s="1" t="n">
         <v>0.0726</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>12.89</v>
       </c>
     </row>
@@ -6170,7 +7941,7 @@
       <c r="G5" s="1" t="n">
         <v>0.04</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>12.62</v>
       </c>
     </row>
@@ -6193,7 +7964,7 @@
       <c r="G6" s="1" t="n">
         <v>0.04</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>10.38</v>
       </c>
     </row>
@@ -6216,7 +7987,7 @@
       <c r="G7" s="1" t="n">
         <v>0.0949</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>9.41</v>
       </c>
     </row>
@@ -6239,7 +8010,7 @@
       <c r="G8" s="1" t="n">
         <v>0.133</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>9.5</v>
       </c>
     </row>
@@ -6262,7 +8033,7 @@
       <c r="G9" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>10.62</v>
       </c>
     </row>
@@ -6828,7 +8599,7 @@
       <c r="F41" s="4" t="n">
         <v>0.1147</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41" s="1" t="n">
         <v>0.155</v>
       </c>
     </row>
@@ -6848,7 +8619,7 @@
       <c r="F42" s="4" t="n">
         <v>0.0959</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="G42" s="1" t="n">
         <v>0.0892</v>
       </c>
     </row>
@@ -6868,7 +8639,7 @@
       <c r="F43" s="4" t="n">
         <v>0.0963</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="G43" s="1" t="n">
         <v>0.0646</v>
       </c>
     </row>
@@ -6888,7 +8659,7 @@
       <c r="F44" s="4" t="n">
         <v>0.1087</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="G44" s="1" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -6908,7 +8679,7 @@
       <c r="F45" s="4" t="n">
         <v>0.1128</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="G45" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6928,7 +8699,7 @@
       <c r="F46" s="4" t="n">
         <v>0.1086</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="G46" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6948,7 +8719,7 @@
       <c r="F47" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6968,7 +8739,7 @@
       <c r="F48" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6988,7 +8759,7 @@
       <c r="F49" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7008,7 +8779,7 @@
       <c r="F50" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7030,6 +8801,978 @@
       <c r="G51" s="2" t="n">
         <f aca="false">AVERAGE(G41:G50)</f>
         <v>0.0781333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12Σελίδα &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4"/>
+      <c r="B1" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>0.0878</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0.0901</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.0818</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.0844</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>0.1019</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.1025</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.0833</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.0804</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>0.0951</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0.0996</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.0813</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.0828</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>0.0934</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.0905</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.0915</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.0944</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.1018</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.0959</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.0978</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.0859</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>0.1099</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.1143</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.0942</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>0.1048</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0.0981</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0.0899</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.0936</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>0.1115</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0.1122</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0.0902</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.0932</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>0.1025</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.0927</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.091</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>0.0817</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>0.1039</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>0.1073</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="n">
+        <f aca="false">AVERAGE(B2:B11)</f>
+        <v>0.09904</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <f aca="false">AVERAGE(C2:C11)</f>
+        <v>0.09782</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="n">
+        <f aca="false">AVERAGE(F2:F11)</f>
+        <v>0.09134</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <f aca="false">AVERAGE(G2:G11)</f>
+        <v>0.09072</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4"/>
+      <c r="B14" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>0.0977</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>0.1031</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>0.1131</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>0.1133</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>0.1095</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>0.1084</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>0.1013</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>0.1067</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>0.1224</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>0.1223</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>0.0952</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>0.0934</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>0.1376</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>0.1373</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>0.0893</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0.0949</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>0.1234</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>0.1234</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>0.0983</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>0.1265</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>0.1269</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>0.0862</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>0.0818</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>0.1396</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>0.1396</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>0.1122</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>0.1157</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>0.1284</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>0.1283</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>0.1138</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>0.1148</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>0.1316</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>0.1316</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>0.0948</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>0.0974</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>0.1202</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="n">
+        <f aca="false">AVERAGE(B15:B24)</f>
+        <v>0.09983</v>
+      </c>
+      <c r="C25" s="9" t="n">
+        <f aca="false">AVERAGE(C15:C24)</f>
+        <v>0.10182</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="n">
+        <f aca="false">AVERAGE(F15:F24)</f>
+        <v>0.12626</v>
+      </c>
+      <c r="G25" s="9" t="n">
+        <f aca="false">AVERAGE(G15:G24)</f>
+        <v>0.12629</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4"/>
+      <c r="B27" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="4" t="n">
+        <v>0.0834</v>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>0.0889</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="4" t="n">
+        <v>0.0883</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>0.0847</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="4" t="n">
+        <v>0.0849</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>0.0907</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="4" t="n">
+        <v>0.0795</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>0.0767</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="4" t="n">
+        <v>0.0812</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="4" t="n">
+        <v>0.0759</v>
+      </c>
+      <c r="G30" s="4" t="n">
+        <v>0.0775</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="4" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>0.0884</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="4" t="n">
+        <v>0.0566</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>0.0594</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="4" t="n">
+        <v>0.0762</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>0.0785</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="4" t="n">
+        <v>0.0621</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>0.0659</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="4" t="n">
+        <v>0.0907</v>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>0.0908</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="4" t="n">
+        <v>0.0838</v>
+      </c>
+      <c r="G33" s="4" t="n">
+        <v>0.0831</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="4" t="n">
+        <v>0.0896</v>
+      </c>
+      <c r="C34" s="4" t="n">
+        <v>0.0889</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="4" t="n">
+        <v>0.0789</v>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v>0.0827</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="4" t="n">
+        <v>0.0905</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>0.0956</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="4" t="n">
+        <v>0.0634</v>
+      </c>
+      <c r="G35" s="4" t="n">
+        <v>0.0639</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="4" t="n">
+        <v>0.0839</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>0.0836</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="4" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="G36" s="4" t="n">
+        <v>0.0763</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="4" t="n">
+        <v>0.0895</v>
+      </c>
+      <c r="C37" s="4" t="n">
+        <v>0.0919</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="4" t="n">
+        <v>0.0775</v>
+      </c>
+      <c r="G37" s="4" t="n">
+        <v>0.0777</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9" t="n">
+        <f aca="false">AVERAGE(B28:B37)</f>
+        <v>0.08579</v>
+      </c>
+      <c r="C38" s="9" t="n">
+        <f aca="false">AVERAGE(C28:C37)</f>
+        <v>0.08803</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9" t="n">
+        <f aca="false">AVERAGE(F28:F37)</f>
+        <v>0.074</v>
+      </c>
+      <c r="G38" s="9" t="n">
+        <f aca="false">AVERAGE(G28:G37)</f>
+        <v>0.07479</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4"/>
+      <c r="B40" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="4" t="n">
+        <v>0.1054</v>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>0.1054</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="4" t="n">
+        <v>0.0901</v>
+      </c>
+      <c r="G41" s="4" t="n">
+        <v>0.0921</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="4" t="n">
+        <v>0.0915</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>0.0915</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" s="4" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G42" s="4" t="n">
+        <v>0.1142</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="4" t="n">
+        <v>0.0999</v>
+      </c>
+      <c r="C43" s="4" t="n">
+        <v>0.0999</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="4" t="n">
+        <v>0.1045</v>
+      </c>
+      <c r="G43" s="4" t="n">
+        <v>0.0993</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="4" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="C44" s="4" t="n">
+        <v>0.1014</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="4" t="n">
+        <v>0.1025</v>
+      </c>
+      <c r="G44" s="4" t="n">
+        <v>0.1063</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C45" s="4" t="n">
+        <v>0.0999</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" s="4" t="n">
+        <v>0.1118</v>
+      </c>
+      <c r="G45" s="4" t="n">
+        <v>0.1114</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="4" t="n">
+        <v>0.0846</v>
+      </c>
+      <c r="C46" s="4" t="n">
+        <v>0.0846</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" s="4" t="n">
+        <v>0.1121</v>
+      </c>
+      <c r="G46" s="4" t="n">
+        <v>0.1134</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="4" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="C47" s="4" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <v>0.1151</v>
+      </c>
+      <c r="G47" s="4" t="n">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="4" t="n">
+        <v>0.0974</v>
+      </c>
+      <c r="C48" s="4" t="n">
+        <v>0.0974</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="4" t="n">
+        <v>0.1276</v>
+      </c>
+      <c r="G48" s="4" t="n">
+        <v>0.1267</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="4" t="n">
+        <v>0.0743</v>
+      </c>
+      <c r="C49" s="4" t="n">
+        <v>0.0874</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="4" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="G49" s="4" t="n">
+        <v>0.1137</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="4" t="n">
+        <v>0.0874</v>
+      </c>
+      <c r="C50" s="4" t="n">
+        <v>0.0818</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="4" t="n">
+        <v>0.1059</v>
+      </c>
+      <c r="G50" s="4" t="n">
+        <v>0.1062</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9" t="n">
+        <f aca="false">AVERAGE(B41:B50)</f>
+        <v>0.09429</v>
+      </c>
+      <c r="C51" s="9" t="n">
+        <f aca="false">AVERAGE(C41:C50)</f>
+        <v>0.09505</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="n">
+        <f aca="false">AVERAGE(F41:F50)</f>
+        <v>0.10966</v>
+      </c>
+      <c r="G51" s="9" t="n">
+        <f aca="false">AVERAGE(G41:G50)</f>
+        <v>0.10983</v>
       </c>
     </row>
   </sheetData>
